--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_22_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_22_39.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2421486.054903477</v>
+        <v>2414704.824695273</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9557151.058389034</v>
+        <v>9557151.058389043</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6505480.383306254</v>
+        <v>6505480.383306259</v>
       </c>
     </row>
     <row r="9">
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>65.12253883819137</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>29.65759083728935</v>
+        <v>65.12253883819137</v>
       </c>
       <c r="F11" t="n">
-        <v>65.12253883819128</v>
+        <v>53.90951276562434</v>
       </c>
       <c r="G11" t="n">
-        <v>65.12253883819128</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>65.12253883819128</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3.450419443054564</v>
+        <v>3.450419443054578</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>24.25192192833495</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>65.12253883819137</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13.93685557789959</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>17.82566701341169</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>5.055812109718671</v>
+        <v>5.055812109718675</v>
       </c>
       <c r="T12" t="n">
-        <v>44.52365034718511</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>65.12253883819137</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>65.12253883819137</v>
       </c>
       <c r="W12" t="n">
-        <v>65.12253883819128</v>
+        <v>65.12253883819137</v>
       </c>
       <c r="X12" t="n">
-        <v>53.17665713150973</v>
+        <v>52.30412009896028</v>
       </c>
       <c r="Y12" t="n">
-        <v>53.08636770533661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1543,7 +1543,7 @@
         <v>14.76135800237432</v>
       </c>
       <c r="H13" t="n">
-        <v>4.000291418507061</v>
+        <v>4.000291418507062</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>55.57214515547694</v>
+        <v>55.57214515547705</v>
       </c>
       <c r="V13" t="n">
-        <v>65.12253883819128</v>
+        <v>65.12253883819137</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>65.12253883819137</v>
       </c>
       <c r="X13" t="n">
-        <v>65.12253883819128</v>
+        <v>65.12253883819137</v>
       </c>
       <c r="Y13" t="n">
-        <v>65.12253883819128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>65.12253883819128</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>65.12253883819128</v>
+        <v>10.09619145902582</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>47.263740749653</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>65.12253883819128</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>10.09619145902584</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>65.12253883819125</v>
       </c>
     </row>
     <row r="15">
@@ -1740,13 +1740,13 @@
         <v>27.46810614828235</v>
       </c>
       <c r="U15" t="n">
-        <v>24.83625241918346</v>
+        <v>56.23981312442962</v>
       </c>
       <c r="V15" t="n">
-        <v>63.14871487855476</v>
+        <v>31.74515417330853</v>
       </c>
       <c r="W15" t="n">
-        <v>65.12253883819128</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="X15" t="n">
         <v>36.12111293260696</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>10.18010791106678</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>43.32815098744996</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>55.58782767073058</v>
       </c>
       <c r="U16" t="n">
-        <v>65.12253883819128</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="V16" t="n">
-        <v>65.12253883819128</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="W16" t="n">
-        <v>65.12253883819128</v>
+        <v>13.38638447762276</v>
       </c>
       <c r="X16" t="n">
-        <v>56.05778311816664</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.302149090512218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,13 +1853,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>65.12253883819128</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>65.12253883819128</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>65.12253883819128</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,22 +1895,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>47.263740749653</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10.09619145902584</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>57.35993220867883</v>
       </c>
     </row>
     <row r="18">
@@ -1977,13 +1977,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>56.23981312442962</v>
+        <v>52.30435856746575</v>
       </c>
       <c r="V18" t="n">
-        <v>59.21326032159094</v>
+        <v>63.14871487855476</v>
       </c>
       <c r="W18" t="n">
-        <v>65.12253883819128</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="X18" t="n">
         <v>36.12111293260696</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.772104537948272</v>
+        <v>10.18010791106678</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>43.32815098744996</v>
       </c>
       <c r="T19" t="n">
-        <v>55.58782767073058</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>65.12253883819128</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="V19" t="n">
-        <v>65.12253883819128</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>65.12253883819128</v>
+        <v>29.10618678715367</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>56.05778311816664</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>48.93278108122428</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>66.96152074977191</v>
+        <v>76.02352492026785</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2093,10 +2093,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>76.02352492026785</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>76.02352492026785</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>47.263740749653</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>76.02352492026785</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>76.02352492026785</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>76.02352492026785</v>
+        <v>19.69778000011889</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>10.18010791106678</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>43.32815098744995</v>
+        <v>43.32815098744996</v>
       </c>
       <c r="T22" t="n">
         <v>55.58782767073058</v>
       </c>
       <c r="U22" t="n">
+        <v>4.921919821669343</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>76.02352492026785</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>15.10202773273614</v>
       </c>
       <c r="X22" t="n">
         <v>56.05778311816664</v>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.2450776763829</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="C23" t="n">
-        <v>130.2450776763829</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>130.2450776763829</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>114.7198644173578</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="Y23" t="n">
-        <v>114.719864417358</v>
+        <v>130.2450776763826</v>
       </c>
     </row>
     <row r="24">
@@ -2409,13 +2409,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>63.3887006816657</v>
+        <v>63.38870068166571</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>63.14871487855476</v>
       </c>
       <c r="W24" t="n">
-        <v>130.2450776763829</v>
+        <v>82.04311089004909</v>
       </c>
       <c r="X24" t="n">
-        <v>36.12111293260696</v>
+        <v>43.8341238232623</v>
       </c>
       <c r="Y24" t="n">
-        <v>125.7869452871391</v>
+        <v>36.03082350643385</v>
       </c>
     </row>
     <row r="25">
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>43.32815098744995</v>
+        <v>43.32815098744996</v>
       </c>
       <c r="T25" t="n">
         <v>55.58782767073058</v>
       </c>
       <c r="U25" t="n">
-        <v>92.01154955919046</v>
+        <v>116.6326138155776</v>
       </c>
       <c r="V25" t="n">
         <v>82.48577105295749</v>
@@ -2539,7 +2539,7 @@
         <v>116.8711260657205</v>
       </c>
       <c r="X25" t="n">
-        <v>56.05778311816664</v>
+        <v>31.43671886177839</v>
       </c>
       <c r="Y25" t="n">
         <v>48.93278108122428</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2567,10 +2567,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>130.2450776763829</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,19 +2603,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.44263128993546</v>
+        <v>40.44263128993547</v>
       </c>
       <c r="T26" t="n">
-        <v>80.50999431015627</v>
+        <v>74.27723312742228</v>
       </c>
       <c r="U26" t="n">
-        <v>114.8270886981001</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>9.185227795549052</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>130.2450776763829</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2634,19 +2634,19 @@
         <v>30.1275649395001</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>36.3028802779485</v>
       </c>
       <c r="D27" t="n">
         <v>11.03944685427152</v>
       </c>
       <c r="E27" t="n">
-        <v>21.23946174503371</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>8.663593683016643</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.182508830588258</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2688,7 +2688,7 @@
         <v>60.71435970878562</v>
       </c>
       <c r="U27" t="n">
-        <v>89.48606668493291</v>
+        <v>16.94206921634204</v>
       </c>
       <c r="V27" t="n">
         <v>96.39496843905803</v>
@@ -2700,7 +2700,7 @@
         <v>69.36736649311024</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.950395617657271</v>
+        <v>69.27707706693712</v>
       </c>
     </row>
     <row r="28">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>43.42636147157006</v>
       </c>
       <c r="C28" t="n">
         <v>30.8412023882606</v>
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>9.015429312564009</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>30.95206736397483</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>20.19100078010757</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>12.4126037282463</v>
+        <v>12.41260372824631</v>
       </c>
       <c r="S28" t="n">
-        <v>72.90955806946128</v>
+        <v>76.57440454795324</v>
       </c>
       <c r="T28" t="n">
         <v>88.83408123123385</v>
       </c>
       <c r="U28" t="n">
-        <v>130.2450776763829</v>
+        <v>13.6263289440814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>130.2450776763829</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>89.30403667866992</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>114.719864417358</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="C29" t="n">
-        <v>130.2450776763829</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>130.2450776763829</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>79.64449307599342</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3.088541206266932</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,10 +2843,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>63.95740671176812</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>98.27450109971191</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>130.2450776763829</v>
+        <v>130.2450776763826</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>61.53534215321047</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>4.693933872931025</v>
+        <v>4.693933872931028</v>
       </c>
       <c r="T30" t="n">
-        <v>44.16177211039746</v>
+        <v>48.385515673769</v>
       </c>
       <c r="U30" t="n">
-        <v>72.93347908654475</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="V30" t="n">
         <v>79.84238084066988</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>26.8737738731819</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>14.39947976558665</v>
+        <v>14.39947976558671</v>
       </c>
       <c r="H31" t="n">
-        <v>3.638413181719504</v>
+        <v>3.638413181719443</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>46.6302375726407</v>
+        <v>7.407608955046655</v>
       </c>
       <c r="T31" t="n">
-        <v>72.2814936328457</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>130.2450776763829</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="V31" t="n">
         <v>99.17943701507261</v>
       </c>
       <c r="W31" t="n">
-        <v>130.2450776763829</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>72.75144908028176</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>65.6264470433394</v>
       </c>
     </row>
     <row r="32">
@@ -3026,22 +3026,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>114.719864417358</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>130.2450776763829</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>40.33540700919317</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3083,19 +3083,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>74.38445740816461</v>
       </c>
       <c r="V32" t="n">
-        <v>130.2450776763829</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>130.2450776763829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>130.2450776763829</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3165,13 +3165,13 @@
         <v>49.04343539499744</v>
       </c>
       <c r="V33" t="n">
-        <v>55.95233714912257</v>
+        <v>117.8905972997163</v>
       </c>
       <c r="W33" t="n">
-        <v>90.86299535376911</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="X33" t="n">
-        <v>130.2450776763829</v>
+        <v>28.92473520317478</v>
       </c>
       <c r="Y33" t="n">
         <v>28.83444577700166</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>32.94995757906922</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>32.94995757907029</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3266,73 +3266,73 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>57.35993220867885</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>40.06736302022081</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>65.12253883819125</v>
       </c>
-      <c r="E35" t="n">
+      <c r="W35" t="n">
+        <v>17.29256918845804</v>
+      </c>
+      <c r="X35" t="n">
         <v>65.12253883819125</v>
       </c>
-      <c r="F35" t="n">
+      <c r="Y35" t="n">
         <v>65.12253883819125</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>4.578327941914726</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>20.27172841885016</v>
       </c>
       <c r="U36" t="n">
-        <v>49.04343539499744</v>
+        <v>53.62176333691215</v>
       </c>
       <c r="V36" t="n">
         <v>55.95233714912257</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>8.968482267380468</v>
+        <v>31.88466230634353</v>
       </c>
       <c r="T37" t="n">
-        <v>48.39144994129839</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>65.12253883819125</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>65.12253883819125</v>
@@ -3487,10 +3487,10 @@
         <v>65.12253883819125</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>48.86140538873445</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>41.73640335179209</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>17.29256918845804</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3557,16 +3557,16 @@
         <v>40.06736302022081</v>
       </c>
       <c r="U38" t="n">
-        <v>65.12253883819125</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>65.12253883819125</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>65.12253883819125</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>17.29256918845802</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>4.578327941914726</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>4.578327941914704</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>2.983730181634598</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>31.88466230634353</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>48.39144994129839</v>
       </c>
       <c r="U40" t="n">
         <v>65.12253883819125</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="W40" t="n">
         <v>65.12253883819125</v>
       </c>
       <c r="X40" t="n">
-        <v>48.86140538873445</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>41.73640335179209</v>
+        <v>5.984752085745848</v>
       </c>
     </row>
     <row r="41">
@@ -3743,67 +3743,67 @@
         <v>65.12253883819125</v>
       </c>
       <c r="D41" t="n">
-        <v>57.35993220867883</v>
+        <v>53.67414881574069</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3.685783392938163</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
         <v>65.12253883819125</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>65.12253883819125</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3819,22 +3819,22 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>51.46940701585135</v>
+      </c>
+      <c r="E42" t="n">
         <v>65.12253883819125</v>
       </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>4.02761172523619</v>
-      </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="H42" t="n">
-        <v>47.44179529061516</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>5.890525192827479</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>65.12253883819125</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>65.12253883819125</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3910,61 +3910,61 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>65.12253883819125</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>57.35993220867885</v>
-      </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.35993220867883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>65.12253883819125</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>65.12253883819125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3983,19 +3983,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>54.22155275611468</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>54.22155275611465</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>54.22155275611465</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>54.22155275611465</v>
       </c>
       <c r="I44" t="n">
-        <v>54.22155275611468</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,10 +4022,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.29391519022909</v>
       </c>
       <c r="S44" t="n">
-        <v>47.7583436675858</v>
+        <v>10.46442847735669</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>54.22155275611468</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,25 +4053,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>47.75834366758577</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>54.22155275611468</v>
+        <v>54.22155275611465</v>
       </c>
       <c r="E45" t="n">
-        <v>54.22155275611468</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>47.75834366758578</v>
+        <v>54.22155275611465</v>
       </c>
       <c r="H45" t="n">
-        <v>54.22155275611468</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>54.22155275611465</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.7583436675858</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>54.22155275611468</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>54.22155275611468</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>54.22155275611468</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>47.75834366758577</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>54.22155275611465</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>54.22155275611465</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>54.22155275611465</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>235.9932645160631</v>
+        <v>194.7098130919661</v>
       </c>
       <c r="C11" t="n">
-        <v>235.9932645160631</v>
+        <v>128.9294708311667</v>
       </c>
       <c r="D11" t="n">
-        <v>235.9932645160631</v>
+        <v>128.9294708311667</v>
       </c>
       <c r="E11" t="n">
-        <v>206.0361020541547</v>
+        <v>63.14912857036735</v>
       </c>
       <c r="F11" t="n">
-        <v>140.2557597933554</v>
+        <v>8.695075271756904</v>
       </c>
       <c r="G11" t="n">
-        <v>74.47541753255615</v>
+        <v>8.695075271756904</v>
       </c>
       <c r="H11" t="n">
-        <v>8.695075271756881</v>
+        <v>8.695075271756904</v>
       </c>
       <c r="I11" t="n">
-        <v>5.209803107055302</v>
+        <v>5.20980310705531</v>
       </c>
       <c r="J11" t="n">
-        <v>5.209803107055302</v>
+        <v>69.68111655686477</v>
       </c>
       <c r="K11" t="n">
-        <v>69.68111655686467</v>
+        <v>134.1524300066742</v>
       </c>
       <c r="L11" t="n">
-        <v>134.152430006674</v>
+        <v>198.6237434564837</v>
       </c>
       <c r="M11" t="n">
-        <v>198.6237434564834</v>
+        <v>216.0049600858478</v>
       </c>
       <c r="N11" t="n">
-        <v>252.7905653255829</v>
+        <v>238.2812313506105</v>
       </c>
       <c r="O11" t="n">
-        <v>260.4901553527651</v>
+        <v>245.9808213777926</v>
       </c>
       <c r="P11" t="n">
-        <v>260.4901553527651</v>
+        <v>245.9808213777926</v>
       </c>
       <c r="Q11" t="n">
-        <v>260.4901553527651</v>
+        <v>260.4901553527655</v>
       </c>
       <c r="R11" t="n">
-        <v>260.4901553527651</v>
+        <v>260.4901553527655</v>
       </c>
       <c r="S11" t="n">
-        <v>235.9932645160631</v>
+        <v>260.4901553527655</v>
       </c>
       <c r="T11" t="n">
-        <v>235.9932645160631</v>
+        <v>260.4901553527655</v>
       </c>
       <c r="U11" t="n">
-        <v>235.9932645160631</v>
+        <v>260.4901553527655</v>
       </c>
       <c r="V11" t="n">
-        <v>235.9932645160631</v>
+        <v>194.7098130919661</v>
       </c>
       <c r="W11" t="n">
-        <v>235.9932645160631</v>
+        <v>194.7098130919661</v>
       </c>
       <c r="X11" t="n">
-        <v>235.9932645160631</v>
+        <v>194.7098130919661</v>
       </c>
       <c r="Y11" t="n">
-        <v>235.9932645160631</v>
+        <v>194.7098130919661</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23.21552736302671</v>
+        <v>5.20980310705531</v>
       </c>
       <c r="C12" t="n">
-        <v>5.209803107055302</v>
+        <v>5.20980310705531</v>
       </c>
       <c r="D12" t="n">
         <v>10.30955298931104</v>
       </c>
       <c r="E12" t="n">
-        <v>5.209803107055302</v>
+        <v>5.20980310705531</v>
       </c>
       <c r="F12" t="n">
-        <v>5.209803107055302</v>
+        <v>5.20980310705531</v>
       </c>
       <c r="G12" t="n">
-        <v>5.209803107055302</v>
+        <v>5.20980310705531</v>
       </c>
       <c r="H12" t="n">
-        <v>5.209803107055302</v>
+        <v>5.20980310705531</v>
       </c>
       <c r="I12" t="n">
-        <v>5.209803107055302</v>
+        <v>5.20980310705531</v>
       </c>
       <c r="J12" t="n">
-        <v>69.68111655686467</v>
+        <v>5.20980310705531</v>
       </c>
       <c r="K12" t="n">
-        <v>69.68111655686467</v>
+        <v>5.20980310705531</v>
       </c>
       <c r="L12" t="n">
-        <v>94.88775258024251</v>
+        <v>30.41643913043312</v>
       </c>
       <c r="M12" t="n">
+        <v>79.18826262176955</v>
+      </c>
+      <c r="N12" t="n">
         <v>143.659576071579</v>
       </c>
-      <c r="N12" t="n">
-        <v>208.1308895213883</v>
-      </c>
       <c r="O12" t="n">
-        <v>244.8897506358177</v>
+        <v>180.4184371860083</v>
       </c>
       <c r="P12" t="n">
-        <v>260.4901553527651</v>
+        <v>196.018841902956</v>
       </c>
       <c r="Q12" t="n">
-        <v>260.4901553527651</v>
+        <v>260.4901553527655</v>
       </c>
       <c r="R12" t="n">
-        <v>260.4901553527651</v>
+        <v>260.4901553527655</v>
       </c>
       <c r="S12" t="n">
-        <v>255.3832744338574</v>
+        <v>255.3832744338577</v>
       </c>
       <c r="T12" t="n">
-        <v>210.4098902447815</v>
+        <v>255.3832744338577</v>
       </c>
       <c r="U12" t="n">
-        <v>210.4098902447815</v>
+        <v>189.6029321730584</v>
       </c>
       <c r="V12" t="n">
-        <v>210.4098902447815</v>
+        <v>123.822589912259</v>
       </c>
       <c r="W12" t="n">
-        <v>144.6295479839822</v>
+        <v>58.04224765145963</v>
       </c>
       <c r="X12" t="n">
-        <v>90.91575290164914</v>
+        <v>5.20980310705531</v>
       </c>
       <c r="Y12" t="n">
-        <v>37.29315925989498</v>
+        <v>5.20980310705531</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.015648615340051</v>
+        <v>7.015648615340062</v>
       </c>
       <c r="C13" t="n">
-        <v>7.015648615340051</v>
+        <v>7.015648615340062</v>
       </c>
       <c r="D13" t="n">
-        <v>10.95669511855789</v>
+        <v>10.9566951185579</v>
       </c>
       <c r="E13" t="n">
-        <v>17.05743688970248</v>
+        <v>17.05743688970249</v>
       </c>
       <c r="F13" t="n">
-        <v>24.16096413824862</v>
+        <v>24.16096413824863</v>
       </c>
       <c r="G13" t="n">
-        <v>9.250501509587687</v>
+        <v>9.250501509587696</v>
       </c>
       <c r="H13" t="n">
-        <v>5.209803107055302</v>
+        <v>5.20980310705531</v>
       </c>
       <c r="I13" t="n">
-        <v>5.209803107055302</v>
+        <v>5.20980310705531</v>
       </c>
       <c r="J13" t="n">
-        <v>5.209803107055302</v>
+        <v>5.20980310705531</v>
       </c>
       <c r="K13" t="n">
-        <v>56.00439973853309</v>
+        <v>5.20980310705531</v>
       </c>
       <c r="L13" t="n">
-        <v>67.076215003337</v>
+        <v>5.20980310705531</v>
       </c>
       <c r="M13" t="n">
-        <v>131.5475284531464</v>
+        <v>67.07621500333713</v>
       </c>
       <c r="N13" t="n">
-        <v>196.0188419029557</v>
+        <v>131.5475284531466</v>
       </c>
       <c r="O13" t="n">
-        <v>196.0188419029557</v>
+        <v>196.018841902956</v>
       </c>
       <c r="P13" t="n">
-        <v>260.4901553527651</v>
+        <v>260.4901553527655</v>
       </c>
       <c r="Q13" t="n">
-        <v>260.4901553527651</v>
+        <v>260.4901553527655</v>
       </c>
       <c r="R13" t="n">
-        <v>260.4901553527651</v>
+        <v>260.4901553527655</v>
       </c>
       <c r="S13" t="n">
-        <v>260.4901553527651</v>
+        <v>260.4901553527655</v>
       </c>
       <c r="T13" t="n">
-        <v>260.4901553527651</v>
+        <v>260.4901553527655</v>
       </c>
       <c r="U13" t="n">
-        <v>204.3566753977379</v>
+        <v>204.3566753977382</v>
       </c>
       <c r="V13" t="n">
-        <v>138.5763331369386</v>
+        <v>138.5763331369388</v>
       </c>
       <c r="W13" t="n">
-        <v>138.5763331369386</v>
+        <v>72.79599087613943</v>
       </c>
       <c r="X13" t="n">
-        <v>72.79599087613933</v>
+        <v>7.015648615340062</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.015648615340051</v>
+        <v>7.015648615340062</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>136.7704876286539</v>
+        <v>15.40797629799047</v>
       </c>
       <c r="C14" t="n">
-        <v>136.7704876286539</v>
+        <v>15.40797629799047</v>
       </c>
       <c r="D14" t="n">
-        <v>136.7704876286539</v>
+        <v>15.40797629799047</v>
       </c>
       <c r="E14" t="n">
-        <v>70.99014536785458</v>
+        <v>15.40797629799047</v>
       </c>
       <c r="F14" t="n">
-        <v>70.99014536785458</v>
+        <v>15.40797629799047</v>
       </c>
       <c r="G14" t="n">
-        <v>70.99014536785458</v>
+        <v>15.40797629799047</v>
       </c>
       <c r="H14" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="I14" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="J14" t="n">
-        <v>69.68111655686467</v>
+        <v>19.71913708202814</v>
       </c>
       <c r="K14" t="n">
-        <v>69.68111655686467</v>
+        <v>84.19045053183747</v>
       </c>
       <c r="L14" t="n">
-        <v>69.68111655686467</v>
+        <v>84.19045053183747</v>
       </c>
       <c r="M14" t="n">
-        <v>87.06233318622881</v>
+        <v>101.5716671612016</v>
       </c>
       <c r="N14" t="n">
+        <v>123.8479384259643</v>
+      </c>
+      <c r="O14" t="n">
         <v>131.5475284531464</v>
-      </c>
-      <c r="O14" t="n">
-        <v>196.0188419029557</v>
       </c>
       <c r="P14" t="n">
         <v>196.0188419029557</v>
       </c>
       <c r="Q14" t="n">
-        <v>260.4901553527651</v>
+        <v>260.490155352765</v>
       </c>
       <c r="R14" t="n">
-        <v>260.4901553527651</v>
+        <v>260.490155352765</v>
       </c>
       <c r="S14" t="n">
-        <v>260.4901553527651</v>
+        <v>260.490155352765</v>
       </c>
       <c r="T14" t="n">
-        <v>212.7490030803883</v>
+        <v>212.7490030803882</v>
       </c>
       <c r="U14" t="n">
-        <v>212.7490030803883</v>
+        <v>146.968660819589</v>
       </c>
       <c r="V14" t="n">
-        <v>212.7490030803883</v>
+        <v>146.968660819589</v>
       </c>
       <c r="W14" t="n">
         <v>146.968660819589</v>
       </c>
       <c r="X14" t="n">
-        <v>136.7704876286539</v>
+        <v>81.18831855878972</v>
       </c>
       <c r="Y14" t="n">
-        <v>136.7704876286539</v>
+        <v>15.40797629799047</v>
       </c>
     </row>
     <row r="15">
@@ -5331,67 +5331,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.297304841848462</v>
+        <v>8.297304841848444</v>
       </c>
       <c r="C15" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="D15" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="E15" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="F15" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="G15" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="H15" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="I15" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="J15" t="n">
-        <v>20.81020782400271</v>
+        <v>35.84768332788822</v>
       </c>
       <c r="K15" t="n">
-        <v>20.81020782400271</v>
+        <v>35.84768332788822</v>
       </c>
       <c r="L15" t="n">
-        <v>46.01684384738055</v>
+        <v>100.3189967776975</v>
       </c>
       <c r="M15" t="n">
-        <v>94.78866733871702</v>
+        <v>149.090820269034</v>
       </c>
       <c r="N15" t="n">
-        <v>159.2599807885264</v>
+        <v>213.5621337188433</v>
       </c>
       <c r="O15" t="n">
-        <v>196.0188419029557</v>
+        <v>250.3209948332726</v>
       </c>
       <c r="P15" t="n">
-        <v>260.4901553527651</v>
+        <v>260.490155352765</v>
       </c>
       <c r="Q15" t="n">
-        <v>260.4901553527651</v>
+        <v>260.490155352765</v>
       </c>
       <c r="R15" t="n">
-        <v>260.4901553527651</v>
+        <v>260.490155352765</v>
       </c>
       <c r="S15" t="n">
-        <v>260.4901553527651</v>
+        <v>260.490155352765</v>
       </c>
       <c r="T15" t="n">
-        <v>232.7445935868233</v>
+        <v>232.7445935868232</v>
       </c>
       <c r="U15" t="n">
-        <v>207.6574699310825</v>
+        <v>175.9367015419448</v>
       </c>
       <c r="V15" t="n">
-        <v>143.8708892456736</v>
+        <v>143.8708892456735</v>
       </c>
       <c r="W15" t="n">
         <v>78.09054698487431</v>
@@ -5400,7 +5400,7 @@
         <v>41.60457432567535</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="C16" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="D16" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="E16" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="F16" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="G16" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="H16" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="I16" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="J16" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="K16" t="n">
-        <v>56.00439973853309</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="L16" t="n">
-        <v>120.4757131883424</v>
+        <v>69.68111655686462</v>
       </c>
       <c r="M16" t="n">
-        <v>184.9470266381518</v>
+        <v>69.68111655686462</v>
       </c>
       <c r="N16" t="n">
+        <v>131.5475284531464</v>
+      </c>
+      <c r="O16" t="n">
         <v>196.0188419029557</v>
       </c>
-      <c r="O16" t="n">
-        <v>260.4901553527651</v>
-      </c>
       <c r="P16" t="n">
-        <v>260.4901553527651</v>
+        <v>260.490155352765</v>
       </c>
       <c r="Q16" t="n">
-        <v>260.4901553527651</v>
+        <v>260.490155352765</v>
       </c>
       <c r="R16" t="n">
-        <v>260.4901553527651</v>
+        <v>260.490155352765</v>
       </c>
       <c r="S16" t="n">
-        <v>260.4901553527651</v>
+        <v>216.7243462745327</v>
       </c>
       <c r="T16" t="n">
-        <v>260.4901553527651</v>
+        <v>160.5750253950069</v>
       </c>
       <c r="U16" t="n">
-        <v>194.7098130919658</v>
+        <v>94.79468313420762</v>
       </c>
       <c r="V16" t="n">
-        <v>128.9294708311666</v>
+        <v>29.01434087340837</v>
       </c>
       <c r="W16" t="n">
-        <v>63.14912857036728</v>
+        <v>15.49274039096114</v>
       </c>
       <c r="X16" t="n">
-        <v>6.525105218683805</v>
+        <v>15.49274039096114</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.209803107055302</v>
+        <v>15.49274039096114</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>202.5508298894531</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="C17" t="n">
-        <v>202.5508298894531</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="D17" t="n">
-        <v>202.5508298894531</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="E17" t="n">
-        <v>202.5508298894531</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="F17" t="n">
-        <v>136.7704876286539</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="G17" t="n">
-        <v>70.99014536785458</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="H17" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="I17" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="J17" t="n">
-        <v>69.68111655686467</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="K17" t="n">
-        <v>69.68111655686467</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="L17" t="n">
-        <v>69.68111655686467</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="M17" t="n">
-        <v>134.152430006674</v>
+        <v>59.37662497615493</v>
       </c>
       <c r="N17" t="n">
-        <v>188.3192518757736</v>
+        <v>123.8479384259643</v>
       </c>
       <c r="O17" t="n">
-        <v>196.0188419029557</v>
+        <v>131.5475284531464</v>
       </c>
       <c r="P17" t="n">
         <v>196.0188419029557</v>
       </c>
       <c r="Q17" t="n">
-        <v>260.4901553527651</v>
+        <v>260.490155352765</v>
       </c>
       <c r="R17" t="n">
-        <v>260.4901553527651</v>
+        <v>260.490155352765</v>
       </c>
       <c r="S17" t="n">
-        <v>260.4901553527651</v>
+        <v>260.490155352765</v>
       </c>
       <c r="T17" t="n">
-        <v>212.7490030803883</v>
+        <v>260.490155352765</v>
       </c>
       <c r="U17" t="n">
-        <v>202.5508298894531</v>
+        <v>260.490155352765</v>
       </c>
       <c r="V17" t="n">
-        <v>202.5508298894531</v>
+        <v>194.7098130919657</v>
       </c>
       <c r="W17" t="n">
-        <v>202.5508298894531</v>
+        <v>128.9294708311665</v>
       </c>
       <c r="X17" t="n">
-        <v>202.5508298894531</v>
+        <v>63.14912857036725</v>
       </c>
       <c r="Y17" t="n">
-        <v>202.5508298894531</v>
+        <v>5.2098031070553</v>
       </c>
     </row>
     <row r="18">
@@ -5568,67 +5568,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8.297304841848444</v>
+        <v>8.297304841848458</v>
       </c>
       <c r="C18" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="D18" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="E18" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="F18" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="G18" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="H18" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="I18" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="J18" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="K18" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="L18" t="n">
-        <v>69.68111655686467</v>
+        <v>30.41643913043311</v>
       </c>
       <c r="M18" t="n">
-        <v>118.4529400482011</v>
+        <v>94.88775258024243</v>
       </c>
       <c r="N18" t="n">
-        <v>182.9242534980105</v>
+        <v>159.3590660300518</v>
       </c>
       <c r="O18" t="n">
-        <v>219.6831146124399</v>
+        <v>223.8303794798611</v>
       </c>
       <c r="P18" t="n">
-        <v>260.4901553527651</v>
+        <v>260.490155352765</v>
       </c>
       <c r="Q18" t="n">
-        <v>260.4901553527651</v>
+        <v>260.490155352765</v>
       </c>
       <c r="R18" t="n">
-        <v>260.4901553527651</v>
+        <v>260.490155352765</v>
       </c>
       <c r="S18" t="n">
-        <v>260.4901553527651</v>
+        <v>260.490155352765</v>
       </c>
       <c r="T18" t="n">
-        <v>260.4901553527651</v>
+        <v>260.490155352765</v>
       </c>
       <c r="U18" t="n">
-        <v>203.6822633078867</v>
+        <v>207.6574699310824</v>
       </c>
       <c r="V18" t="n">
-        <v>143.8708892456736</v>
+        <v>143.8708892456735</v>
       </c>
       <c r="W18" t="n">
         <v>78.09054698487431</v>
@@ -5637,7 +5637,7 @@
         <v>41.60457432567535</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="C19" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="D19" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="E19" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="F19" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="G19" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="H19" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="I19" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="J19" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="K19" t="n">
-        <v>5.209803107055302</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="L19" t="n">
-        <v>69.68111655686467</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="M19" t="n">
+        <v>69.68111655686462</v>
+      </c>
+      <c r="N19" t="n">
         <v>134.152430006674</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>196.0188419029557</v>
       </c>
-      <c r="O19" t="n">
-        <v>260.4901553527651</v>
-      </c>
       <c r="P19" t="n">
-        <v>260.4901553527651</v>
+        <v>260.490155352765</v>
       </c>
       <c r="Q19" t="n">
-        <v>260.4901553527651</v>
+        <v>260.490155352765</v>
       </c>
       <c r="R19" t="n">
-        <v>260.4901553527651</v>
+        <v>260.490155352765</v>
       </c>
       <c r="S19" t="n">
-        <v>260.4901553527651</v>
+        <v>216.7243462745327</v>
       </c>
       <c r="T19" t="n">
-        <v>204.3408344732393</v>
+        <v>216.7243462745327</v>
       </c>
       <c r="U19" t="n">
-        <v>138.56049221244</v>
+        <v>150.9440040137335</v>
       </c>
       <c r="V19" t="n">
-        <v>72.78014995164071</v>
+        <v>150.9440040137335</v>
       </c>
       <c r="W19" t="n">
-        <v>6.999807690841436</v>
+        <v>121.5438153398409</v>
       </c>
       <c r="X19" t="n">
-        <v>6.999807690841436</v>
+        <v>64.91979198815739</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.999807690841436</v>
+        <v>15.49274039096114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.081881993621428</v>
+        <v>159.6647606204252</v>
       </c>
       <c r="C20" t="n">
-        <v>6.081881993621428</v>
+        <v>159.6647606204252</v>
       </c>
       <c r="D20" t="n">
-        <v>6.081881993621428</v>
+        <v>159.6647606204252</v>
       </c>
       <c r="E20" t="n">
-        <v>6.081881993621428</v>
+        <v>159.6647606204252</v>
       </c>
       <c r="F20" t="n">
-        <v>6.081881993621428</v>
+        <v>159.6647606204252</v>
       </c>
       <c r="G20" t="n">
-        <v>6.081881993621428</v>
+        <v>82.87332130702329</v>
       </c>
       <c r="H20" t="n">
         <v>6.081881993621428</v>
@@ -5750,19 +5750,19 @@
         <v>6.081881993621428</v>
       </c>
       <c r="J20" t="n">
-        <v>6.081881993621428</v>
+        <v>81.34517166468659</v>
       </c>
       <c r="K20" t="n">
         <v>81.34517166468659</v>
       </c>
       <c r="L20" t="n">
-        <v>156.6084613357518</v>
+        <v>81.34517166468659</v>
       </c>
       <c r="M20" t="n">
-        <v>231.8717510068169</v>
+        <v>153.5675203389411</v>
       </c>
       <c r="N20" t="n">
-        <v>254.1480222715796</v>
+        <v>228.8308100100062</v>
       </c>
       <c r="O20" t="n">
         <v>304.0940996810714</v>
@@ -5780,22 +5780,22 @@
         <v>304.0940996810714</v>
       </c>
       <c r="T20" t="n">
-        <v>304.0940996810714</v>
+        <v>256.3529474086946</v>
       </c>
       <c r="U20" t="n">
-        <v>304.0940996810714</v>
+        <v>256.3529474086946</v>
       </c>
       <c r="V20" t="n">
-        <v>304.0940996810714</v>
+        <v>256.3529474086946</v>
       </c>
       <c r="W20" t="n">
-        <v>227.3026603676695</v>
+        <v>256.3529474086946</v>
       </c>
       <c r="X20" t="n">
-        <v>150.5112210542677</v>
+        <v>256.3529474086946</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.71978174086578</v>
+        <v>236.456199933827</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>6.081881993621428</v>
       </c>
       <c r="J21" t="n">
-        <v>75.99683278443322</v>
+        <v>75.99683278443321</v>
       </c>
       <c r="K21" t="n">
-        <v>75.99683278443322</v>
+        <v>75.99683278443321</v>
       </c>
       <c r="L21" t="n">
-        <v>101.2034688078111</v>
+        <v>105.418512549368</v>
       </c>
       <c r="M21" t="n">
-        <v>149.9752922991475</v>
+        <v>154.1903360407045</v>
       </c>
       <c r="N21" t="n">
-        <v>214.4466057489569</v>
+        <v>218.6616494905138</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2054668633862</v>
+        <v>293.924939161579</v>
       </c>
       <c r="P21" t="n">
-        <v>261.3746273828786</v>
+        <v>304.0940996810714</v>
       </c>
       <c r="Q21" t="n">
         <v>304.0940996810714</v>
@@ -5859,7 +5859,7 @@
         <v>304.0940996810714</v>
       </c>
       <c r="T21" t="n">
-        <v>276.3485379151297</v>
+        <v>276.3485379151296</v>
       </c>
       <c r="U21" t="n">
         <v>219.5406458702512</v>
@@ -5868,7 +5868,7 @@
         <v>155.7540651848423</v>
       </c>
       <c r="W21" t="n">
-        <v>78.96262587144047</v>
+        <v>78.96262587144048</v>
       </c>
       <c r="X21" t="n">
         <v>42.47665321224148</v>
@@ -5911,16 +5911,16 @@
         <v>6.081881993621428</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87647862509922</v>
+        <v>6.081881993621428</v>
       </c>
       <c r="L22" t="n">
-        <v>132.1397682961644</v>
+        <v>81.34517166468659</v>
       </c>
       <c r="M22" t="n">
-        <v>207.4030579672296</v>
+        <v>156.6084613357518</v>
       </c>
       <c r="N22" t="n">
-        <v>282.6663476382947</v>
+        <v>231.8717510068169</v>
       </c>
       <c r="O22" t="n">
         <v>304.0940996810714</v>
@@ -5941,19 +5941,19 @@
         <v>204.1789697233133</v>
       </c>
       <c r="U22" t="n">
-        <v>127.3875304099114</v>
+        <v>199.2073335398089</v>
       </c>
       <c r="V22" t="n">
-        <v>127.3875304099114</v>
+        <v>199.2073335398089</v>
       </c>
       <c r="W22" t="n">
-        <v>112.1329569425012</v>
+        <v>122.415894226407</v>
       </c>
       <c r="X22" t="n">
-        <v>55.50893359081767</v>
+        <v>65.79187087472351</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.081881993621428</v>
+        <v>16.36481927752727</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>273.5409752573084</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="C23" t="n">
-        <v>141.9802907357095</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="D23" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="E23" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="F23" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="G23" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="H23" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="I23" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="J23" t="n">
         <v>117.2178972069806</v>
       </c>
       <c r="K23" t="n">
-        <v>117.2178972069806</v>
+        <v>246.1605241065994</v>
       </c>
       <c r="L23" t="n">
-        <v>246.1605241065997</v>
+        <v>246.1605241065994</v>
       </c>
       <c r="M23" t="n">
-        <v>375.1031510062187</v>
+        <v>263.5417407359635</v>
       </c>
       <c r="N23" t="n">
-        <v>504.0457779058378</v>
+        <v>384.3380937787296</v>
       </c>
       <c r="O23" t="n">
-        <v>520.9803107055316</v>
+        <v>392.0376838059117</v>
       </c>
       <c r="P23" t="n">
-        <v>520.9803107055316</v>
+        <v>392.0376838059117</v>
       </c>
       <c r="Q23" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="R23" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="S23" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="T23" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="U23" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="V23" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="W23" t="n">
-        <v>520.9803107055316</v>
+        <v>405.1016597789064</v>
       </c>
       <c r="X23" t="n">
-        <v>520.9803107055316</v>
+        <v>273.5409752573078</v>
       </c>
       <c r="Y23" t="n">
-        <v>405.1016597789073</v>
+        <v>141.9802907357092</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>77.53609853644491</v>
+        <v>209.0967830580435</v>
       </c>
       <c r="C24" t="n">
-        <v>74.44859680165175</v>
+        <v>206.0092813232503</v>
       </c>
       <c r="D24" t="n">
-        <v>74.44859680165175</v>
+        <v>206.0092813232503</v>
       </c>
       <c r="E24" t="n">
-        <v>74.44859680165175</v>
+        <v>206.0092813232503</v>
       </c>
       <c r="F24" t="n">
-        <v>74.44859680165175</v>
+        <v>206.0092813232503</v>
       </c>
       <c r="G24" t="n">
         <v>74.44859680165175</v>
@@ -6063,55 +6063,55 @@
         <v>74.44859680165175</v>
       </c>
       <c r="I24" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="J24" t="n">
-        <v>80.33455700492243</v>
+        <v>80.3345570049224</v>
       </c>
       <c r="K24" t="n">
-        <v>80.33455700492243</v>
+        <v>80.3345570049224</v>
       </c>
       <c r="L24" t="n">
-        <v>209.2771839045415</v>
+        <v>209.2771839045412</v>
       </c>
       <c r="M24" t="n">
-        <v>258.0490073958779</v>
+        <v>317.39720983661</v>
       </c>
       <c r="N24" t="n">
-        <v>355.2788226914831</v>
+        <v>381.8685232864193</v>
       </c>
       <c r="O24" t="n">
-        <v>392.0376838059125</v>
+        <v>510.811150186038</v>
       </c>
       <c r="P24" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="Q24" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="R24" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="S24" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="T24" t="n">
-        <v>493.2347489395898</v>
+        <v>493.2347489395887</v>
       </c>
       <c r="U24" t="n">
-        <v>436.4268568947114</v>
+        <v>436.4268568947102</v>
       </c>
       <c r="V24" t="n">
-        <v>372.6402762093025</v>
+        <v>372.6402762093014</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0795916877036</v>
+        <v>289.7684470274336</v>
       </c>
       <c r="X24" t="n">
-        <v>204.5936190285047</v>
+        <v>245.4915542766636</v>
       </c>
       <c r="Y24" t="n">
-        <v>77.53609853644491</v>
+        <v>209.0967830580435</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="C25" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="D25" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="E25" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="F25" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="G25" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="H25" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="I25" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="J25" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="K25" t="n">
-        <v>10.41960621411063</v>
+        <v>61.2142028455884</v>
       </c>
       <c r="L25" t="n">
-        <v>130.945636537823</v>
+        <v>181.7402331693007</v>
       </c>
       <c r="M25" t="n">
-        <v>259.888263437442</v>
+        <v>310.6828600689195</v>
       </c>
       <c r="N25" t="n">
-        <v>388.8308903370611</v>
+        <v>334.8892598983737</v>
       </c>
       <c r="O25" t="n">
-        <v>501.7881628049772</v>
+        <v>447.8465323662898</v>
       </c>
       <c r="P25" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="Q25" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="R25" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="S25" t="n">
-        <v>477.2145016272993</v>
+        <v>477.2145016272981</v>
       </c>
       <c r="T25" t="n">
-        <v>421.0651807477735</v>
+        <v>421.0651807477723</v>
       </c>
       <c r="U25" t="n">
-        <v>328.124221597076</v>
+        <v>303.2544597219363</v>
       </c>
       <c r="V25" t="n">
-        <v>244.805260937523</v>
+        <v>219.9354990623833</v>
       </c>
       <c r="W25" t="n">
-        <v>126.7536184468962</v>
+        <v>101.8838565717565</v>
       </c>
       <c r="X25" t="n">
-        <v>70.12959509521272</v>
+        <v>70.12959509521269</v>
       </c>
       <c r="Y25" t="n">
-        <v>20.70254349801647</v>
+        <v>20.70254349801645</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.9802907357095</v>
+        <v>273.5409752573078</v>
       </c>
       <c r="C26" t="n">
-        <v>141.9802907357095</v>
+        <v>273.5409752573078</v>
       </c>
       <c r="D26" t="n">
-        <v>141.9802907357095</v>
+        <v>141.9802907357092</v>
       </c>
       <c r="E26" t="n">
-        <v>141.9802907357095</v>
+        <v>141.9802907357092</v>
       </c>
       <c r="F26" t="n">
-        <v>141.9802907357095</v>
+        <v>141.9802907357092</v>
       </c>
       <c r="G26" t="n">
-        <v>10.41960621411063</v>
+        <v>141.9802907357092</v>
       </c>
       <c r="H26" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="I26" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="J26" t="n">
         <v>117.2178972069806</v>
@@ -6230,46 +6230,46 @@
         <v>117.2178972069806</v>
       </c>
       <c r="L26" t="n">
-        <v>117.2178972069806</v>
+        <v>246.1605241065994</v>
       </c>
       <c r="M26" t="n">
-        <v>240.8187856415307</v>
+        <v>375.1031510062181</v>
       </c>
       <c r="N26" t="n">
-        <v>263.0950569062934</v>
+        <v>504.0457779058369</v>
       </c>
       <c r="O26" t="n">
-        <v>392.0376838059125</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="P26" t="n">
-        <v>392.0376838059125</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="Q26" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="R26" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="S26" t="n">
-        <v>480.129167988425</v>
+        <v>480.1291679884239</v>
       </c>
       <c r="T26" t="n">
-        <v>398.8059414125096</v>
+        <v>405.1016597789064</v>
       </c>
       <c r="U26" t="n">
-        <v>282.8189831316004</v>
+        <v>405.1016597789064</v>
       </c>
       <c r="V26" t="n">
-        <v>273.5409752573084</v>
+        <v>405.1016597789064</v>
       </c>
       <c r="W26" t="n">
-        <v>141.9802907357095</v>
+        <v>405.1016597789064</v>
       </c>
       <c r="X26" t="n">
-        <v>141.9802907357095</v>
+        <v>405.1016597789064</v>
       </c>
       <c r="Y26" t="n">
-        <v>141.9802907357095</v>
+        <v>405.1016597789064</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>51.96002147967641</v>
+        <v>58.24013867089852</v>
       </c>
       <c r="C27" t="n">
-        <v>51.96002147967641</v>
+        <v>21.57056263256669</v>
       </c>
       <c r="D27" t="n">
-        <v>40.80906506122034</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="E27" t="n">
-        <v>19.35506329856003</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="F27" t="n">
-        <v>10.60395856824018</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="G27" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="H27" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="I27" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="J27" t="n">
-        <v>80.33455700492243</v>
+        <v>80.3345570049224</v>
       </c>
       <c r="K27" t="n">
-        <v>80.33455700492243</v>
+        <v>80.3345570049224</v>
       </c>
       <c r="L27" t="n">
-        <v>209.2771839045415</v>
+        <v>209.2771839045412</v>
       </c>
       <c r="M27" t="n">
-        <v>290.8075092416738</v>
+        <v>258.0490073958776</v>
       </c>
       <c r="N27" t="n">
-        <v>355.2788226914831</v>
+        <v>322.5203208456869</v>
       </c>
       <c r="O27" t="n">
-        <v>392.0376838059125</v>
+        <v>451.4629477453057</v>
       </c>
       <c r="P27" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="Q27" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="R27" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="S27" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="T27" t="n">
-        <v>459.6526746360511</v>
+        <v>459.65267463605</v>
       </c>
       <c r="U27" t="n">
-        <v>369.262708287634</v>
+        <v>442.5394734074217</v>
       </c>
       <c r="V27" t="n">
-        <v>271.8940532986865</v>
+        <v>345.1708184184741</v>
       </c>
       <c r="W27" t="n">
-        <v>155.4401498132801</v>
+        <v>228.7169149330677</v>
       </c>
       <c r="X27" t="n">
-        <v>85.37210285054245</v>
+        <v>158.6488679703301</v>
       </c>
       <c r="Y27" t="n">
-        <v>82.39190525694924</v>
+        <v>88.67202244817135</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>81.943544663403</v>
+        <v>61.96728618215927</v>
       </c>
       <c r="C28" t="n">
-        <v>50.79081497829128</v>
+        <v>30.81455649704755</v>
       </c>
       <c r="D28" t="n">
-        <v>50.79081497829128</v>
+        <v>30.81455649704755</v>
       </c>
       <c r="E28" t="n">
-        <v>50.79081497829128</v>
+        <v>30.81455649704755</v>
       </c>
       <c r="F28" t="n">
-        <v>41.68432072317612</v>
+        <v>30.81455649704755</v>
       </c>
       <c r="G28" t="n">
-        <v>10.41960621411063</v>
+        <v>30.81455649704755</v>
       </c>
       <c r="H28" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="I28" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="J28" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="K28" t="n">
-        <v>61.21420284558842</v>
+        <v>61.2142028455884</v>
       </c>
       <c r="L28" t="n">
         <v>181.7402331693007</v>
       </c>
       <c r="M28" t="n">
-        <v>279.0804113379963</v>
+        <v>310.6828600689195</v>
       </c>
       <c r="N28" t="n">
-        <v>408.0230382376154</v>
+        <v>334.8892598983737</v>
       </c>
       <c r="O28" t="n">
-        <v>520.9803107055316</v>
+        <v>447.8465323662898</v>
       </c>
       <c r="P28" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="Q28" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="R28" t="n">
-        <v>508.4423271416464</v>
+        <v>508.4423271416453</v>
       </c>
       <c r="S28" t="n">
-        <v>434.7963088896653</v>
+        <v>431.0944437598743</v>
       </c>
       <c r="T28" t="n">
-        <v>345.0649137066008</v>
+        <v>341.3630485768098</v>
       </c>
       <c r="U28" t="n">
-        <v>213.5042291850019</v>
+        <v>327.5990799464245</v>
       </c>
       <c r="V28" t="n">
-        <v>213.5042291850019</v>
+        <v>327.5990799464245</v>
       </c>
       <c r="W28" t="n">
-        <v>81.943544663403</v>
+        <v>196.0383954248259</v>
       </c>
       <c r="X28" t="n">
-        <v>81.943544663403</v>
+        <v>105.8322977696038</v>
       </c>
       <c r="Y28" t="n">
-        <v>81.943544663403</v>
+        <v>105.8322977696038</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>273.5409752573084</v>
+        <v>93.98832771134329</v>
       </c>
       <c r="C29" t="n">
-        <v>141.9802907357095</v>
+        <v>93.98832771134329</v>
       </c>
       <c r="D29" t="n">
-        <v>10.41960621411063</v>
+        <v>93.98832771134329</v>
       </c>
       <c r="E29" t="n">
-        <v>10.41960621411063</v>
+        <v>13.53934480629943</v>
       </c>
       <c r="F29" t="n">
-        <v>10.41960621411063</v>
+        <v>13.53934480629943</v>
       </c>
       <c r="G29" t="n">
-        <v>10.41960621411063</v>
+        <v>13.53934480629943</v>
       </c>
       <c r="H29" t="n">
-        <v>10.41960621411063</v>
+        <v>13.53934480629943</v>
       </c>
       <c r="I29" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="J29" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="K29" t="n">
-        <v>139.3622331137297</v>
+        <v>104.1765687147294</v>
       </c>
       <c r="L29" t="n">
-        <v>268.3048600133487</v>
+        <v>233.1191956143482</v>
       </c>
       <c r="M29" t="n">
-        <v>285.6860766427129</v>
+        <v>362.0618225139669</v>
       </c>
       <c r="N29" t="n">
-        <v>307.9623479074755</v>
+        <v>384.3380937787296</v>
       </c>
       <c r="O29" t="n">
-        <v>436.9049748070946</v>
+        <v>392.0376838059117</v>
       </c>
       <c r="P29" t="n">
-        <v>520.9803107055316</v>
+        <v>392.0376838059117</v>
       </c>
       <c r="Q29" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="R29" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="S29" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="T29" t="n">
-        <v>520.9803107055316</v>
+        <v>456.3768695825323</v>
       </c>
       <c r="U29" t="n">
-        <v>520.9803107055316</v>
+        <v>357.1096967545405</v>
       </c>
       <c r="V29" t="n">
-        <v>520.9803107055316</v>
+        <v>357.1096967545405</v>
       </c>
       <c r="W29" t="n">
-        <v>520.9803107055316</v>
+        <v>357.1096967545405</v>
       </c>
       <c r="X29" t="n">
-        <v>520.9803107055316</v>
+        <v>357.1096967545405</v>
       </c>
       <c r="Y29" t="n">
-        <v>389.4196261839327</v>
+        <v>225.5490122329419</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>97.26052437513727</v>
+        <v>35.10361310926808</v>
       </c>
       <c r="C30" t="n">
-        <v>77.31073378972278</v>
+        <v>15.15382252385359</v>
       </c>
       <c r="D30" t="n">
-        <v>77.31073378972278</v>
+        <v>15.15382252385359</v>
       </c>
       <c r="E30" t="n">
-        <v>72.5765174799798</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="F30" t="n">
-        <v>72.5765174799798</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="G30" t="n">
-        <v>72.5765174799798</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="H30" t="n">
-        <v>72.5765174799798</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="I30" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="J30" t="n">
-        <v>80.33455700492243</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="K30" t="n">
-        <v>80.33455700492243</v>
+        <v>139.3622331137294</v>
       </c>
       <c r="L30" t="n">
-        <v>105.5411930283003</v>
+        <v>231.8665252308442</v>
       </c>
       <c r="M30" t="n">
-        <v>154.3130165196367</v>
+        <v>280.6383487221807</v>
       </c>
       <c r="N30" t="n">
-        <v>283.2556434192558</v>
+        <v>345.10966217199</v>
       </c>
       <c r="O30" t="n">
-        <v>412.1982703188748</v>
+        <v>381.8685232864193</v>
       </c>
       <c r="P30" t="n">
-        <v>520.9803107055316</v>
+        <v>392.0376838059117</v>
       </c>
       <c r="Q30" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="R30" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="S30" t="n">
-        <v>516.2389633591366</v>
+        <v>516.2389633591355</v>
       </c>
       <c r="T30" t="n">
-        <v>471.6311127425735</v>
+        <v>467.3647051028032</v>
       </c>
       <c r="U30" t="n">
-        <v>397.9609318470738</v>
+        <v>335.8040205812046</v>
       </c>
       <c r="V30" t="n">
-        <v>317.3120623110436</v>
+        <v>255.1551510451744</v>
       </c>
       <c r="W30" t="n">
-        <v>217.5779442785545</v>
+        <v>155.4210330126853</v>
       </c>
       <c r="X30" t="n">
-        <v>164.2296827687342</v>
+        <v>102.072771502865</v>
       </c>
       <c r="Y30" t="n">
-        <v>110.9726226994928</v>
+        <v>48.81571143362358</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="C31" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="D31" t="n">
-        <v>14.71891217174825</v>
+        <v>14.71891217174822</v>
       </c>
       <c r="E31" t="n">
         <v>21.17791339731257</v>
       </c>
       <c r="F31" t="n">
-        <v>28.63970010027846</v>
+        <v>28.63970010027847</v>
       </c>
       <c r="G31" t="n">
-        <v>14.09477104413033</v>
+        <v>14.09477104413025</v>
       </c>
       <c r="H31" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="I31" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="J31" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="K31" t="n">
-        <v>10.41960621411063</v>
+        <v>61.2142028455884</v>
       </c>
       <c r="L31" t="n">
-        <v>130.945636537823</v>
+        <v>181.7402331693007</v>
       </c>
       <c r="M31" t="n">
-        <v>259.888263437442</v>
+        <v>310.6828600689195</v>
       </c>
       <c r="N31" t="n">
-        <v>388.8308903370611</v>
+        <v>408.0230382376143</v>
       </c>
       <c r="O31" t="n">
-        <v>501.7881628049772</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="P31" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="Q31" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="R31" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="S31" t="n">
-        <v>473.8790606321571</v>
+        <v>513.4978774176045</v>
       </c>
       <c r="T31" t="n">
-        <v>400.86745090201</v>
+        <v>513.4978774176045</v>
       </c>
       <c r="U31" t="n">
-        <v>269.3067663804111</v>
+        <v>381.937192896006</v>
       </c>
       <c r="V31" t="n">
-        <v>169.1255168702367</v>
+        <v>281.7559433858316</v>
       </c>
       <c r="W31" t="n">
-        <v>37.56483234863781</v>
+        <v>150.195258864233</v>
       </c>
       <c r="X31" t="n">
-        <v>37.56483234863781</v>
+        <v>76.70894666192819</v>
       </c>
       <c r="Y31" t="n">
-        <v>37.56483234863781</v>
+        <v>10.41960621411061</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.9802907357095</v>
+        <v>182.7231260985306</v>
       </c>
       <c r="C32" t="n">
-        <v>141.9802907357095</v>
+        <v>182.7231260985306</v>
       </c>
       <c r="D32" t="n">
-        <v>141.9802907357095</v>
+        <v>51.162441576932</v>
       </c>
       <c r="E32" t="n">
-        <v>141.9802907357095</v>
+        <v>51.162441576932</v>
       </c>
       <c r="F32" t="n">
-        <v>10.41960621411063</v>
+        <v>51.162441576932</v>
       </c>
       <c r="G32" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="H32" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="I32" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="J32" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="K32" t="n">
-        <v>139.3622331137297</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="L32" t="n">
-        <v>268.3048600133487</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="M32" t="n">
-        <v>362.0618225139677</v>
+        <v>139.3622331137294</v>
       </c>
       <c r="N32" t="n">
-        <v>384.3380937787304</v>
+        <v>268.3048600133482</v>
       </c>
       <c r="O32" t="n">
-        <v>392.0376838059125</v>
+        <v>392.0376838059117</v>
       </c>
       <c r="P32" t="n">
-        <v>520.9803107055316</v>
+        <v>392.0376838059117</v>
       </c>
       <c r="Q32" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="R32" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="S32" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="T32" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="U32" t="n">
-        <v>520.9803107055316</v>
+        <v>445.8444951417278</v>
       </c>
       <c r="V32" t="n">
-        <v>389.4196261839327</v>
+        <v>314.2838106201292</v>
       </c>
       <c r="W32" t="n">
-        <v>389.4196261839327</v>
+        <v>182.7231260985306</v>
       </c>
       <c r="X32" t="n">
-        <v>389.4196261839327</v>
+        <v>182.7231260985306</v>
       </c>
       <c r="Y32" t="n">
-        <v>257.8589416623338</v>
+        <v>182.7231260985306</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>141.9802907357095</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="C33" t="n">
-        <v>141.9802907357095</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="D33" t="n">
-        <v>141.9802907357095</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="E33" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="F33" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="G33" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="H33" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="I33" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="J33" t="n">
-        <v>80.33455700492242</v>
+        <v>80.3345570049224</v>
       </c>
       <c r="K33" t="n">
-        <v>80.33455700492242</v>
+        <v>209.2771839045412</v>
       </c>
       <c r="L33" t="n">
-        <v>105.5411930283002</v>
+        <v>234.483819927919</v>
       </c>
       <c r="M33" t="n">
-        <v>154.3130165196367</v>
+        <v>283.2556434192554</v>
       </c>
       <c r="N33" t="n">
-        <v>218.784329969446</v>
+        <v>355.2788226914824</v>
       </c>
       <c r="O33" t="n">
-        <v>263.0950569062934</v>
+        <v>392.0376838059117</v>
       </c>
       <c r="P33" t="n">
-        <v>392.0376838059125</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="Q33" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="R33" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="S33" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="T33" t="n">
-        <v>500.5038173531577</v>
+        <v>500.5038173531565</v>
       </c>
       <c r="U33" t="n">
-        <v>450.9649937218471</v>
+        <v>450.964993721846</v>
       </c>
       <c r="V33" t="n">
-        <v>394.4474814500061</v>
+        <v>331.8835823079911</v>
       </c>
       <c r="W33" t="n">
-        <v>302.6666780623606</v>
+        <v>200.3228977863925</v>
       </c>
       <c r="X33" t="n">
-        <v>171.1059935407617</v>
+        <v>171.1059935407614</v>
       </c>
       <c r="Y33" t="n">
-        <v>141.9802907357095</v>
+        <v>141.9802907357092</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10.41960621411063</v>
+        <v>43.70239164751386</v>
       </c>
       <c r="C34" t="n">
-        <v>10.41960621411063</v>
+        <v>43.70239164751386</v>
       </c>
       <c r="D34" t="n">
-        <v>10.41960621411063</v>
+        <v>43.70239164751386</v>
       </c>
       <c r="E34" t="n">
-        <v>10.41960621411063</v>
+        <v>43.70239164751386</v>
       </c>
       <c r="F34" t="n">
-        <v>10.41960621411063</v>
+        <v>43.70239164751386</v>
       </c>
       <c r="G34" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="H34" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="I34" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="J34" t="n">
-        <v>10.41960621411063</v>
+        <v>10.41960621411061</v>
       </c>
       <c r="K34" t="n">
-        <v>10.41960621411063</v>
+        <v>61.2142028455884</v>
       </c>
       <c r="L34" t="n">
-        <v>77.00400609913669</v>
+        <v>181.7402331693007</v>
       </c>
       <c r="M34" t="n">
-        <v>205.9466329987557</v>
+        <v>205.9466329987549</v>
       </c>
       <c r="N34" t="n">
-        <v>334.8892598983748</v>
+        <v>334.8892598983737</v>
       </c>
       <c r="O34" t="n">
-        <v>447.8465323662909</v>
+        <v>447.8465323662898</v>
       </c>
       <c r="P34" t="n">
-        <v>520.9803107055316</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="Q34" t="n">
-        <v>487.6975252721272</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="R34" t="n">
-        <v>487.6975252721272</v>
+        <v>520.9803107055304</v>
       </c>
       <c r="S34" t="n">
-        <v>451.2007846074628</v>
+        <v>484.483570040866</v>
       </c>
       <c r="T34" t="n">
-        <v>402.3205321415048</v>
+        <v>435.603317574908</v>
       </c>
       <c r="U34" t="n">
-        <v>291.7788795292367</v>
+        <v>325.0616649626399</v>
       </c>
       <c r="V34" t="n">
-        <v>215.7289872832515</v>
+        <v>249.0117727166547</v>
       </c>
       <c r="W34" t="n">
-        <v>104.9464132061926</v>
+        <v>138.2291986395958</v>
       </c>
       <c r="X34" t="n">
-        <v>55.59145826807699</v>
+        <v>88.87424370148022</v>
       </c>
       <c r="Y34" t="n">
-        <v>13.43347508444861</v>
+        <v>46.71626051785184</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>260.490155352765</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="C35" t="n">
-        <v>202.550829889453</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="D35" t="n">
-        <v>136.7704876286538</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="E35" t="n">
-        <v>70.99014536785454</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="F35" t="n">
         <v>5.2098031070553</v>
@@ -6935,25 +6935,25 @@
         <v>5.2098031070553</v>
       </c>
       <c r="J35" t="n">
-        <v>69.68111655686462</v>
+        <v>41.9954083467908</v>
       </c>
       <c r="K35" t="n">
-        <v>69.68111655686462</v>
+        <v>41.9954083467908</v>
       </c>
       <c r="L35" t="n">
-        <v>114.1663118237822</v>
+        <v>106.4667217966001</v>
       </c>
       <c r="M35" t="n">
-        <v>131.5475284531464</v>
+        <v>123.8479384259642</v>
       </c>
       <c r="N35" t="n">
+        <v>188.3192518757736</v>
+      </c>
+      <c r="O35" t="n">
         <v>196.0188419029557</v>
       </c>
-      <c r="O35" t="n">
-        <v>260.490155352765</v>
-      </c>
       <c r="P35" t="n">
-        <v>260.490155352765</v>
+        <v>196.0188419029557</v>
       </c>
       <c r="Q35" t="n">
         <v>260.490155352765</v>
@@ -6965,22 +6965,22 @@
         <v>260.490155352765</v>
       </c>
       <c r="T35" t="n">
-        <v>260.490155352765</v>
+        <v>220.0180714939561</v>
       </c>
       <c r="U35" t="n">
-        <v>260.490155352765</v>
+        <v>220.0180714939561</v>
       </c>
       <c r="V35" t="n">
-        <v>260.490155352765</v>
+        <v>154.2377292331568</v>
       </c>
       <c r="W35" t="n">
-        <v>260.490155352765</v>
+        <v>136.7704876286538</v>
       </c>
       <c r="X35" t="n">
-        <v>260.490155352765</v>
+        <v>70.99014536785454</v>
       </c>
       <c r="Y35" t="n">
-        <v>260.490155352765</v>
+        <v>5.2098031070553</v>
       </c>
     </row>
     <row r="36">
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>9.834376785757044</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="C36" t="n">
-        <v>9.834376785757044</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="D36" t="n">
-        <v>9.834376785757044</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="E36" t="n">
-        <v>9.834376785757044</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="F36" t="n">
-        <v>9.834376785757044</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="G36" t="n">
-        <v>9.834376785757044</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="H36" t="n">
-        <v>9.834376785757044</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="I36" t="n">
         <v>5.2098031070553</v>
       </c>
       <c r="J36" t="n">
-        <v>5.2098031070553</v>
+        <v>69.68111655686462</v>
       </c>
       <c r="K36" t="n">
         <v>69.68111655686462</v>
@@ -7047,19 +7047,19 @@
         <v>240.0136620003911</v>
       </c>
       <c r="U36" t="n">
-        <v>190.4748383690805</v>
+        <v>185.8502646903788</v>
       </c>
       <c r="V36" t="n">
-        <v>133.9573260972396</v>
+        <v>129.3327524185378</v>
       </c>
       <c r="W36" t="n">
-        <v>68.17698383644031</v>
+        <v>63.55241015773858</v>
       </c>
       <c r="X36" t="n">
-        <v>38.96007959080923</v>
+        <v>34.33550591210749</v>
       </c>
       <c r="Y36" t="n">
-        <v>9.834376785757044</v>
+        <v>5.2098031070553</v>
       </c>
     </row>
     <row r="37">
@@ -7120,22 +7120,22 @@
         <v>260.490155352765</v>
       </c>
       <c r="S37" t="n">
-        <v>251.431082355411</v>
+        <v>228.2834257503978</v>
       </c>
       <c r="T37" t="n">
-        <v>202.550829889453</v>
+        <v>228.2834257503978</v>
       </c>
       <c r="U37" t="n">
-        <v>136.7704876286538</v>
+        <v>228.2834257503978</v>
       </c>
       <c r="V37" t="n">
-        <v>70.99014536785454</v>
+        <v>162.5030834895985</v>
       </c>
       <c r="W37" t="n">
-        <v>5.2098031070553</v>
+        <v>96.72274122879929</v>
       </c>
       <c r="X37" t="n">
-        <v>5.2098031070553</v>
+        <v>47.36778629068368</v>
       </c>
       <c r="Y37" t="n">
         <v>5.2098031070553</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5.2098031070553</v>
+        <v>202.550829889453</v>
       </c>
       <c r="C38" t="n">
-        <v>5.2098031070553</v>
+        <v>136.7704876286538</v>
       </c>
       <c r="D38" t="n">
-        <v>5.2098031070553</v>
+        <v>70.99014536785454</v>
       </c>
       <c r="E38" t="n">
-        <v>5.2098031070553</v>
+        <v>70.99014536785454</v>
       </c>
       <c r="F38" t="n">
-        <v>5.2098031070553</v>
+        <v>70.99014536785454</v>
       </c>
       <c r="G38" t="n">
         <v>5.2098031070553</v>
@@ -7178,19 +7178,19 @@
         <v>5.2098031070553</v>
       </c>
       <c r="L38" t="n">
-        <v>5.2098031070553</v>
+        <v>69.68111655686462</v>
       </c>
       <c r="M38" t="n">
-        <v>22.59101973641942</v>
+        <v>134.152430006674</v>
       </c>
       <c r="N38" t="n">
-        <v>67.07621500333703</v>
+        <v>198.6237434564833</v>
       </c>
       <c r="O38" t="n">
-        <v>131.5475284531464</v>
+        <v>260.490155352765</v>
       </c>
       <c r="P38" t="n">
-        <v>196.0188419029557</v>
+        <v>260.490155352765</v>
       </c>
       <c r="Q38" t="n">
         <v>260.490155352765</v>
@@ -7205,19 +7205,19 @@
         <v>220.0180714939561</v>
       </c>
       <c r="U38" t="n">
-        <v>154.2377292331568</v>
+        <v>220.0180714939561</v>
       </c>
       <c r="V38" t="n">
-        <v>88.4573869723576</v>
+        <v>220.0180714939561</v>
       </c>
       <c r="W38" t="n">
-        <v>22.67704471155835</v>
+        <v>220.0180714939561</v>
       </c>
       <c r="X38" t="n">
-        <v>5.2098031070553</v>
+        <v>220.0180714939561</v>
       </c>
       <c r="Y38" t="n">
-        <v>5.2098031070553</v>
+        <v>220.0180714939561</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>5.2098031070553</v>
+        <v>9.834376785757044</v>
       </c>
       <c r="C39" t="n">
-        <v>5.2098031070553</v>
+        <v>9.834376785757044</v>
       </c>
       <c r="D39" t="n">
-        <v>5.2098031070553</v>
+        <v>9.834376785757044</v>
       </c>
       <c r="E39" t="n">
         <v>5.2098031070553</v>
@@ -7251,7 +7251,7 @@
         <v>5.2098031070553</v>
       </c>
       <c r="J39" t="n">
-        <v>69.68111655686462</v>
+        <v>10.64104730451041</v>
       </c>
       <c r="K39" t="n">
         <v>75.11236075431974</v>
@@ -7275,28 +7275,28 @@
         <v>260.490155352765</v>
       </c>
       <c r="R39" t="n">
-        <v>255.8655816740633</v>
+        <v>260.490155352765</v>
       </c>
       <c r="S39" t="n">
-        <v>255.8655816740633</v>
+        <v>260.490155352765</v>
       </c>
       <c r="T39" t="n">
-        <v>235.3890883216894</v>
+        <v>240.0136620003911</v>
       </c>
       <c r="U39" t="n">
-        <v>185.8502646903788</v>
+        <v>190.4748383690805</v>
       </c>
       <c r="V39" t="n">
-        <v>129.3327524185378</v>
+        <v>133.9573260972396</v>
       </c>
       <c r="W39" t="n">
-        <v>63.55241015773858</v>
+        <v>68.17698383644031</v>
       </c>
       <c r="X39" t="n">
-        <v>34.33550591210749</v>
+        <v>38.96007959080923</v>
       </c>
       <c r="Y39" t="n">
-        <v>5.2098031070553</v>
+        <v>9.834376785757044</v>
       </c>
     </row>
     <row r="40">
@@ -7336,13 +7336,13 @@
         <v>56.00439973853309</v>
       </c>
       <c r="L40" t="n">
-        <v>120.4757131883424</v>
+        <v>67.07621500333703</v>
       </c>
       <c r="M40" t="n">
+        <v>67.07621500333703</v>
+      </c>
+      <c r="N40" t="n">
         <v>131.5475284531464</v>
-      </c>
-      <c r="N40" t="n">
-        <v>196.0188419029557</v>
       </c>
       <c r="O40" t="n">
         <v>196.0188419029557</v>
@@ -7357,25 +7357,25 @@
         <v>260.490155352765</v>
       </c>
       <c r="S40" t="n">
-        <v>228.2834257503978</v>
+        <v>260.490155352765</v>
       </c>
       <c r="T40" t="n">
-        <v>228.2834257503978</v>
+        <v>211.609902886807</v>
       </c>
       <c r="U40" t="n">
-        <v>162.5030834895985</v>
+        <v>145.8295606260078</v>
       </c>
       <c r="V40" t="n">
-        <v>162.5030834895985</v>
+        <v>80.04921836520853</v>
       </c>
       <c r="W40" t="n">
-        <v>96.72274122879929</v>
+        <v>14.26887610440929</v>
       </c>
       <c r="X40" t="n">
-        <v>47.36778629068368</v>
+        <v>14.26887610440929</v>
       </c>
       <c r="Y40" t="n">
-        <v>5.2098031070553</v>
+        <v>8.223671977393279</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>194.7098130919657</v>
+        <v>125.2064573029461</v>
       </c>
       <c r="C41" t="n">
-        <v>128.9294708311665</v>
+        <v>59.4261150421469</v>
       </c>
       <c r="D41" t="n">
-        <v>70.99014536785454</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="E41" t="n">
-        <v>70.99014536785454</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="F41" t="n">
         <v>5.2098031070553</v>
@@ -7412,49 +7412,49 @@
         <v>5.2098031070553</v>
       </c>
       <c r="K41" t="n">
-        <v>69.68111655686462</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="L41" t="n">
-        <v>69.68111655686462</v>
+        <v>67.07621500333703</v>
       </c>
       <c r="M41" t="n">
-        <v>87.06233318622874</v>
+        <v>131.5475284531464</v>
       </c>
       <c r="N41" t="n">
-        <v>109.3386044509914</v>
+        <v>196.0188419029557</v>
       </c>
       <c r="O41" t="n">
-        <v>131.5475284531464</v>
+        <v>260.490155352765</v>
       </c>
       <c r="P41" t="n">
-        <v>196.0188419029557</v>
+        <v>260.490155352765</v>
       </c>
       <c r="Q41" t="n">
         <v>260.490155352765</v>
       </c>
       <c r="R41" t="n">
-        <v>260.490155352765</v>
+        <v>256.7671418245446</v>
       </c>
       <c r="S41" t="n">
-        <v>194.7098130919657</v>
+        <v>256.7671418245446</v>
       </c>
       <c r="T41" t="n">
-        <v>194.7098130919657</v>
+        <v>256.7671418245446</v>
       </c>
       <c r="U41" t="n">
-        <v>194.7098130919657</v>
+        <v>256.7671418245446</v>
       </c>
       <c r="V41" t="n">
-        <v>194.7098130919657</v>
+        <v>190.9867995637454</v>
       </c>
       <c r="W41" t="n">
-        <v>194.7098130919657</v>
+        <v>190.9867995637454</v>
       </c>
       <c r="X41" t="n">
-        <v>194.7098130919657</v>
+        <v>125.2064573029461</v>
       </c>
       <c r="Y41" t="n">
-        <v>194.7098130919657</v>
+        <v>125.2064573029461</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>128.9294708311665</v>
+        <v>260.490155352765</v>
       </c>
       <c r="C42" t="n">
-        <v>63.14912857036725</v>
+        <v>260.490155352765</v>
       </c>
       <c r="D42" t="n">
-        <v>63.14912857036725</v>
+        <v>208.5008553367535</v>
       </c>
       <c r="E42" t="n">
-        <v>59.08083389841151</v>
+        <v>142.7205130759543</v>
       </c>
       <c r="F42" t="n">
-        <v>59.08083389841151</v>
+        <v>76.94017081515503</v>
       </c>
       <c r="G42" t="n">
-        <v>59.08083389841151</v>
+        <v>11.15982855435578</v>
       </c>
       <c r="H42" t="n">
         <v>11.15982855435578</v>
@@ -7491,22 +7491,22 @@
         <v>5.2098031070553</v>
       </c>
       <c r="K42" t="n">
-        <v>5.2098031070553</v>
+        <v>69.68111655686462</v>
       </c>
       <c r="L42" t="n">
-        <v>30.41643913043311</v>
+        <v>94.88775258024243</v>
       </c>
       <c r="M42" t="n">
-        <v>79.18826262176955</v>
+        <v>149.090820269034</v>
       </c>
       <c r="N42" t="n">
-        <v>143.6595760715789</v>
+        <v>213.5621337188433</v>
       </c>
       <c r="O42" t="n">
-        <v>180.4184371860082</v>
+        <v>250.3209948332726</v>
       </c>
       <c r="P42" t="n">
-        <v>196.0188419029557</v>
+        <v>260.490155352765</v>
       </c>
       <c r="Q42" t="n">
         <v>260.490155352765</v>
@@ -7515,25 +7515,25 @@
         <v>260.490155352765</v>
       </c>
       <c r="S42" t="n">
-        <v>194.7098130919657</v>
+        <v>260.490155352765</v>
       </c>
       <c r="T42" t="n">
-        <v>194.7098130919657</v>
+        <v>260.490155352765</v>
       </c>
       <c r="U42" t="n">
-        <v>128.9294708311665</v>
+        <v>260.490155352765</v>
       </c>
       <c r="V42" t="n">
-        <v>128.9294708311665</v>
+        <v>260.490155352765</v>
       </c>
       <c r="W42" t="n">
-        <v>128.9294708311665</v>
+        <v>260.490155352765</v>
       </c>
       <c r="X42" t="n">
-        <v>128.9294708311665</v>
+        <v>260.490155352765</v>
       </c>
       <c r="Y42" t="n">
-        <v>128.9294708311665</v>
+        <v>260.490155352765</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>70.99014536785454</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="C43" t="n">
-        <v>70.99014536785454</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="D43" t="n">
-        <v>70.99014536785454</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="E43" t="n">
-        <v>70.99014536785454</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="F43" t="n">
-        <v>70.99014536785454</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="G43" t="n">
         <v>5.2098031070553</v>
@@ -7570,19 +7570,19 @@
         <v>5.2098031070553</v>
       </c>
       <c r="K43" t="n">
-        <v>56.00439973853309</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="L43" t="n">
-        <v>120.4757131883424</v>
+        <v>69.68111655686462</v>
       </c>
       <c r="M43" t="n">
-        <v>184.9470266381517</v>
+        <v>134.152430006674</v>
       </c>
       <c r="N43" t="n">
-        <v>249.418340087961</v>
+        <v>134.152430006674</v>
       </c>
       <c r="O43" t="n">
-        <v>260.490155352765</v>
+        <v>196.0188419029557</v>
       </c>
       <c r="P43" t="n">
         <v>260.490155352765</v>
@@ -7591,28 +7591,28 @@
         <v>260.490155352765</v>
       </c>
       <c r="R43" t="n">
-        <v>202.550829889453</v>
+        <v>194.7098130919657</v>
       </c>
       <c r="S43" t="n">
-        <v>202.550829889453</v>
+        <v>128.9294708311665</v>
       </c>
       <c r="T43" t="n">
-        <v>202.550829889453</v>
+        <v>70.99014536785454</v>
       </c>
       <c r="U43" t="n">
-        <v>202.550829889453</v>
+        <v>70.99014536785454</v>
       </c>
       <c r="V43" t="n">
-        <v>202.550829889453</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="W43" t="n">
-        <v>202.550829889453</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="X43" t="n">
-        <v>136.7704876286538</v>
+        <v>5.2098031070553</v>
       </c>
       <c r="Y43" t="n">
-        <v>70.99014536785454</v>
+        <v>5.2098031070553</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>113.8762146368825</v>
+        <v>168.645459845079</v>
       </c>
       <c r="C44" t="n">
-        <v>113.8762146368825</v>
+        <v>168.645459845079</v>
       </c>
       <c r="D44" t="n">
-        <v>113.8762146368825</v>
+        <v>168.645459845079</v>
       </c>
       <c r="E44" t="n">
-        <v>59.10696942868582</v>
+        <v>168.645459845079</v>
       </c>
       <c r="F44" t="n">
-        <v>59.10696942868582</v>
+        <v>113.8762146368824</v>
       </c>
       <c r="G44" t="n">
-        <v>59.10696942868582</v>
+        <v>59.10696942868579</v>
       </c>
       <c r="H44" t="n">
-        <v>59.10696942868582</v>
+        <v>4.337724220489172</v>
       </c>
       <c r="I44" t="n">
-        <v>4.337724220489174</v>
+        <v>4.337724220489172</v>
       </c>
       <c r="J44" t="n">
-        <v>58.0170614490427</v>
+        <v>4.337724220489172</v>
       </c>
       <c r="K44" t="n">
+        <v>4.337724220489172</v>
+      </c>
+      <c r="L44" t="n">
+        <v>4.337724220489172</v>
+      </c>
+      <c r="M44" t="n">
+        <v>58.01706144904267</v>
+      </c>
+      <c r="N44" t="n">
         <v>111.6963986775962</v>
       </c>
-      <c r="L44" t="n">
-        <v>111.6963986775962</v>
-      </c>
-      <c r="M44" t="n">
-        <v>129.0776153069604</v>
-      </c>
-      <c r="N44" t="n">
-        <v>163.2068737959052</v>
-      </c>
       <c r="O44" t="n">
-        <v>216.8862110244587</v>
+        <v>165.3757359061497</v>
       </c>
       <c r="P44" t="n">
-        <v>216.8862110244587</v>
+        <v>216.8862110244586</v>
       </c>
       <c r="Q44" t="n">
-        <v>216.8862110244587</v>
+        <v>216.8862110244586</v>
       </c>
       <c r="R44" t="n">
-        <v>216.8862110244587</v>
+        <v>179.2155896201868</v>
       </c>
       <c r="S44" t="n">
-        <v>168.6454598450791</v>
+        <v>168.645459845079</v>
       </c>
       <c r="T44" t="n">
-        <v>168.6454598450791</v>
+        <v>168.645459845079</v>
       </c>
       <c r="U44" t="n">
-        <v>168.6454598450791</v>
+        <v>168.645459845079</v>
       </c>
       <c r="V44" t="n">
-        <v>168.6454598450791</v>
+        <v>168.645459845079</v>
       </c>
       <c r="W44" t="n">
-        <v>113.8762146368825</v>
+        <v>168.645459845079</v>
       </c>
       <c r="X44" t="n">
-        <v>113.8762146368825</v>
+        <v>168.645459845079</v>
       </c>
       <c r="Y44" t="n">
-        <v>113.8762146368825</v>
+        <v>168.645459845079</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>216.8862110244587</v>
+        <v>113.8762146368824</v>
       </c>
       <c r="C45" t="n">
-        <v>216.8862110244587</v>
+        <v>113.8762146368824</v>
       </c>
       <c r="D45" t="n">
-        <v>162.1169658162621</v>
+        <v>59.10696942868579</v>
       </c>
       <c r="E45" t="n">
-        <v>107.3477206080654</v>
+        <v>59.10696942868579</v>
       </c>
       <c r="F45" t="n">
-        <v>107.3477206080654</v>
+        <v>59.10696942868579</v>
       </c>
       <c r="G45" t="n">
-        <v>59.10696942868582</v>
+        <v>4.337724220489172</v>
       </c>
       <c r="H45" t="n">
-        <v>4.337724220489174</v>
+        <v>4.337724220489172</v>
       </c>
       <c r="I45" t="n">
-        <v>4.337724220489174</v>
+        <v>4.337724220489172</v>
       </c>
       <c r="J45" t="n">
-        <v>4.337724220489174</v>
+        <v>4.337724220489172</v>
       </c>
       <c r="K45" t="n">
-        <v>4.337724220489174</v>
+        <v>4.337724220489172</v>
       </c>
       <c r="L45" t="n">
-        <v>50.58655255652284</v>
+        <v>58.01706144904267</v>
       </c>
       <c r="M45" t="n">
-        <v>99.35837604785928</v>
+        <v>106.7888849403791</v>
       </c>
       <c r="N45" t="n">
-        <v>153.0377132764128</v>
+        <v>160.4682221689326</v>
       </c>
       <c r="O45" t="n">
-        <v>206.7170505049663</v>
+        <v>206.7170505049662</v>
       </c>
       <c r="P45" t="n">
-        <v>216.8862110244587</v>
+        <v>216.8862110244586</v>
       </c>
       <c r="Q45" t="n">
-        <v>216.8862110244587</v>
+        <v>216.8862110244586</v>
       </c>
       <c r="R45" t="n">
-        <v>216.8862110244587</v>
+        <v>216.8862110244586</v>
       </c>
       <c r="S45" t="n">
-        <v>216.8862110244587</v>
+        <v>162.116965816262</v>
       </c>
       <c r="T45" t="n">
-        <v>216.8862110244587</v>
+        <v>162.116965816262</v>
       </c>
       <c r="U45" t="n">
-        <v>216.8862110244587</v>
+        <v>162.116965816262</v>
       </c>
       <c r="V45" t="n">
-        <v>216.8862110244587</v>
+        <v>162.116965816262</v>
       </c>
       <c r="W45" t="n">
-        <v>216.8862110244587</v>
+        <v>162.116965816262</v>
       </c>
       <c r="X45" t="n">
-        <v>216.8862110244587</v>
+        <v>162.116965816262</v>
       </c>
       <c r="Y45" t="n">
-        <v>216.8862110244587</v>
+        <v>162.116965816262</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>168.6454598450791</v>
+        <v>4.337724220489172</v>
       </c>
       <c r="C46" t="n">
-        <v>113.8762146368825</v>
+        <v>4.337724220489172</v>
       </c>
       <c r="D46" t="n">
-        <v>113.8762146368825</v>
+        <v>4.337724220489172</v>
       </c>
       <c r="E46" t="n">
-        <v>113.8762146368825</v>
+        <v>4.337724220489172</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8762146368825</v>
+        <v>4.337724220489172</v>
       </c>
       <c r="G46" t="n">
-        <v>113.8762146368825</v>
+        <v>4.337724220489172</v>
       </c>
       <c r="H46" t="n">
-        <v>59.10696942868582</v>
+        <v>4.337724220489172</v>
       </c>
       <c r="I46" t="n">
-        <v>4.337724220489174</v>
+        <v>4.337724220489172</v>
       </c>
       <c r="J46" t="n">
-        <v>4.337724220489174</v>
+        <v>4.337724220489172</v>
       </c>
       <c r="K46" t="n">
-        <v>55.13232085196696</v>
+        <v>4.337724220489172</v>
       </c>
       <c r="L46" t="n">
-        <v>108.8116580805205</v>
+        <v>55.8481993387981</v>
       </c>
       <c r="M46" t="n">
-        <v>162.490995309074</v>
+        <v>109.5275365673516</v>
       </c>
       <c r="N46" t="n">
-        <v>216.1703325376275</v>
+        <v>163.2068737959051</v>
       </c>
       <c r="O46" t="n">
-        <v>216.8862110244587</v>
+        <v>216.8862110244586</v>
       </c>
       <c r="P46" t="n">
-        <v>216.8862110244587</v>
+        <v>216.8862110244586</v>
       </c>
       <c r="Q46" t="n">
-        <v>216.8862110244587</v>
+        <v>216.8862110244586</v>
       </c>
       <c r="R46" t="n">
-        <v>216.8862110244587</v>
+        <v>168.645459845079</v>
       </c>
       <c r="S46" t="n">
-        <v>216.8862110244587</v>
+        <v>113.8762146368824</v>
       </c>
       <c r="T46" t="n">
-        <v>216.8862110244587</v>
+        <v>59.10696942868579</v>
       </c>
       <c r="U46" t="n">
-        <v>216.8862110244587</v>
+        <v>4.337724220489172</v>
       </c>
       <c r="V46" t="n">
-        <v>216.8862110244587</v>
+        <v>4.337724220489172</v>
       </c>
       <c r="W46" t="n">
-        <v>216.8862110244587</v>
+        <v>4.337724220489172</v>
       </c>
       <c r="X46" t="n">
-        <v>216.8862110244587</v>
+        <v>4.337724220489172</v>
       </c>
       <c r="Y46" t="n">
-        <v>216.8862110244587</v>
+        <v>4.337724220489172</v>
       </c>
     </row>
   </sheetData>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>61.21955356311419</v>
+        <v>126.3420924013056</v>
       </c>
       <c r="K11" t="n">
-        <v>105.6237515658772</v>
+        <v>105.6237515658774</v>
       </c>
       <c r="L11" t="n">
-        <v>78.09336766188591</v>
+        <v>78.09336766188603</v>
       </c>
       <c r="M11" t="n">
-        <v>47.56575436408608</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>32.21267737811804</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>28.21169586572336</v>
+        <v>28.21169586572341</v>
       </c>
       <c r="Q11" t="n">
-        <v>69.84514868689214</v>
+        <v>84.50104159090522</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>120.5924117636387</v>
+        <v>55.46987292544743</v>
       </c>
       <c r="K12" t="n">
-        <v>15.86258054204528</v>
+        <v>15.86258054204531</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>5.486105249954575</v>
+        <v>5.486105249954919</v>
       </c>
       <c r="Q12" t="n">
-        <v>43.55695142762842</v>
+        <v>108.6794902658198</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8848,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7437663446525</v>
+        <v>55.43609297952345</v>
       </c>
       <c r="L13" t="n">
-        <v>51.91488835073785</v>
+        <v>40.73123656810765</v>
       </c>
       <c r="M13" t="n">
-        <v>104.7767218946681</v>
+        <v>102.1455082042362</v>
       </c>
       <c r="N13" t="n">
-        <v>95.89693919854926</v>
+        <v>95.89693919854938</v>
       </c>
       <c r="O13" t="n">
-        <v>48.94341134778533</v>
+        <v>114.0659501859767</v>
       </c>
       <c r="P13" t="n">
-        <v>126.256598779262</v>
+        <v>126.2565987792621</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,25 +8924,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>126.3420924013055</v>
+        <v>75.87544646712718</v>
       </c>
       <c r="K14" t="n">
-        <v>40.50121272768595</v>
+        <v>105.6237515658772</v>
       </c>
       <c r="L14" t="n">
-        <v>12.97082882369463</v>
+        <v>12.97082882369466</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>22.43325656783318</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>57.34517517437092</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>28.21169586572336</v>
+        <v>93.33423470391466</v>
       </c>
       <c r="Q14" t="n">
         <v>134.9676875250834</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>71.22785748802056</v>
+        <v>86.41722668386453</v>
       </c>
       <c r="K15" t="n">
-        <v>15.86258054204528</v>
+        <v>15.86258054204531</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>39.66129032972881</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>54.85065952557269</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>43.55695142762842</v>
+        <v>43.55695142762845</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9085,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>106.7437663446525</v>
+        <v>55.43609297952345</v>
       </c>
       <c r="L16" t="n">
         <v>105.8537754062989</v>
       </c>
       <c r="M16" t="n">
-        <v>104.7767218946681</v>
+        <v>39.65418305647682</v>
       </c>
       <c r="N16" t="n">
-        <v>41.95805214298824</v>
+        <v>93.26572550811734</v>
       </c>
       <c r="O16" t="n">
         <v>114.0659501859766</v>
       </c>
       <c r="P16" t="n">
-        <v>61.13405994107073</v>
+        <v>126.256598779262</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,25 +9161,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>126.3420924013055</v>
+        <v>61.2195535631142</v>
       </c>
       <c r="K17" t="n">
-        <v>40.50121272768595</v>
+        <v>40.50121272768598</v>
       </c>
       <c r="L17" t="n">
-        <v>12.97082882369463</v>
+        <v>12.97082882369466</v>
       </c>
       <c r="M17" t="n">
-        <v>47.56575436408608</v>
+        <v>37.15717700983384</v>
       </c>
       <c r="N17" t="n">
-        <v>32.21267737811804</v>
+        <v>42.62125473237037</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>28.21169586572336</v>
+        <v>93.33423470391466</v>
       </c>
       <c r="Q17" t="n">
         <v>134.9676875250834</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>55.46987292544742</v>
+        <v>55.46987292544743</v>
       </c>
       <c r="K18" t="n">
-        <v>15.86258054204528</v>
+        <v>15.86258054204531</v>
       </c>
       <c r="L18" t="n">
-        <v>39.66129032972881</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>15.85807066512413</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>27.99237609634346</v>
       </c>
       <c r="P18" t="n">
-        <v>30.94735375841702</v>
+        <v>26.75819732667829</v>
       </c>
       <c r="Q18" t="n">
-        <v>43.55695142762842</v>
+        <v>43.55695142762845</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9325,19 +9325,19 @@
         <v>55.43609297952345</v>
       </c>
       <c r="L19" t="n">
-        <v>105.8537754062989</v>
+        <v>40.73123656810765</v>
       </c>
       <c r="M19" t="n">
         <v>104.7767218946681</v>
       </c>
       <c r="N19" t="n">
-        <v>93.26572550811728</v>
+        <v>95.89693919854926</v>
       </c>
       <c r="O19" t="n">
-        <v>114.0659501859766</v>
+        <v>111.4347364955447</v>
       </c>
       <c r="P19" t="n">
-        <v>61.13405994107073</v>
+        <v>126.256598779262</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>61.21955356311419</v>
+        <v>137.243078483382</v>
       </c>
       <c r="K20" t="n">
-        <v>116.5247376479538</v>
+        <v>40.50121272768598</v>
       </c>
       <c r="L20" t="n">
-        <v>88.99435374396248</v>
+        <v>12.97082882369466</v>
       </c>
       <c r="M20" t="n">
-        <v>58.46674044616265</v>
+        <v>55.39508287362661</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>53.52224081444697</v>
       </c>
       <c r="O20" t="n">
-        <v>42.6732195780905</v>
+        <v>68.24616125644758</v>
       </c>
       <c r="P20" t="n">
-        <v>28.21169586572336</v>
+        <v>28.21169586572341</v>
       </c>
       <c r="Q20" t="n">
-        <v>69.84514868689214</v>
+        <v>69.84514868689217</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>15.86258054204528</v>
+        <v>15.86258054204531</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>4.257619940966695</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,13 +9492,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>38.89336217842006</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>86.70793354701507</v>
+        <v>43.55695142762845</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,7 +9559,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7437663446525</v>
+        <v>55.43609297952345</v>
       </c>
       <c r="L22" t="n">
         <v>116.7547614883755</v>
@@ -9568,13 +9568,13 @@
         <v>115.6777079767447</v>
       </c>
       <c r="N22" t="n">
-        <v>106.7979252806258</v>
+        <v>106.7979252806259</v>
       </c>
       <c r="O22" t="n">
-        <v>70.58760533038802</v>
+        <v>121.8952786955171</v>
       </c>
       <c r="P22" t="n">
-        <v>61.13405994107073</v>
+        <v>61.13405994107075</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9638,25 +9638,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>40.50121272768595</v>
+        <v>170.7462904040686</v>
       </c>
       <c r="L23" t="n">
-        <v>143.2159065000775</v>
+        <v>12.97082882369466</v>
       </c>
       <c r="M23" t="n">
-        <v>112.6882932022777</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>107.743793570562</v>
+        <v>99.51523411919545</v>
       </c>
       <c r="O23" t="n">
-        <v>9.328225022739026</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>28.21169586572336</v>
+        <v>28.21169586572341</v>
       </c>
       <c r="Q23" t="n">
-        <v>69.84514868689214</v>
+        <v>200.0902263632748</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>15.86258054204528</v>
+        <v>15.86258054204531</v>
       </c>
       <c r="L24" t="n">
-        <v>104.7838291679204</v>
+        <v>104.7838291679202</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>59.947679233063</v>
       </c>
       <c r="N24" t="n">
-        <v>33.08939580383418</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>93.11491493453482</v>
       </c>
       <c r="P24" t="n">
-        <v>119.9731983637643</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>43.55695142762842</v>
+        <v>43.55695142762845</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,22 +9796,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>55.43609297952345</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>169.8992607328597</v>
+        <v>169.8992607328594</v>
       </c>
       <c r="N25" t="n">
-        <v>161.0194780367409</v>
+        <v>55.22530927899862</v>
       </c>
       <c r="O25" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P25" t="n">
-        <v>80.52006792142865</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9875,25 +9875,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>40.50121272768595</v>
+        <v>40.50121272768598</v>
       </c>
       <c r="L26" t="n">
-        <v>12.97082882369463</v>
+        <v>143.2159065000773</v>
       </c>
       <c r="M26" t="n">
-        <v>107.2925977830161</v>
+        <v>112.6882932022774</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>107.7437935705617</v>
       </c>
       <c r="O26" t="n">
-        <v>122.4677140125625</v>
+        <v>9.328225022738852</v>
       </c>
       <c r="P26" t="n">
-        <v>28.21169586572336</v>
+        <v>28.21169586572341</v>
       </c>
       <c r="Q26" t="n">
-        <v>200.090226363275</v>
+        <v>69.84514868689217</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>15.86258054204528</v>
+        <v>15.86258054204531</v>
       </c>
       <c r="L27" t="n">
-        <v>104.7838291679204</v>
+        <v>104.7838291679202</v>
       </c>
       <c r="M27" t="n">
-        <v>33.08939580383414</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>93.11491493453482</v>
       </c>
       <c r="P27" t="n">
-        <v>119.9731983637643</v>
+        <v>59.94767923306304</v>
       </c>
       <c r="Q27" t="n">
-        <v>43.55695142762842</v>
+        <v>43.55695142762845</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10039,16 +10039,16 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>137.9775953480885</v>
+        <v>169.8992607328594</v>
       </c>
       <c r="N28" t="n">
-        <v>161.0194780367409</v>
+        <v>55.22530927899862</v>
       </c>
       <c r="O28" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>61.13405994107073</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>61.21955356311419</v>
+        <v>61.2195535631142</v>
       </c>
       <c r="K29" t="n">
-        <v>170.7462904040688</v>
+        <v>135.2052152535636</v>
       </c>
       <c r="L29" t="n">
-        <v>143.2159065000775</v>
+        <v>143.2159065000773</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>112.6882932022774</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>122.4677140125625</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>113.1362775813162</v>
+        <v>28.21169586572341</v>
       </c>
       <c r="Q29" t="n">
-        <v>69.84514868689214</v>
+        <v>200.0902263632748</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>55.46987292544743</v>
       </c>
       <c r="K30" t="n">
-        <v>15.86258054204528</v>
+        <v>146.1076582184279</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>67.97743039771419</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>65.12253883819162</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>93.11491493453508</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>99.60896956279225</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>43.55695142762842</v>
+        <v>173.8020291040111</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,22 +10270,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>55.43609297952345</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>169.8992607328597</v>
+        <v>169.8992607328594</v>
       </c>
       <c r="N31" t="n">
-        <v>161.0194780367409</v>
+        <v>129.097812651969</v>
       </c>
       <c r="O31" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>80.52006792142865</v>
+        <v>61.13405994107075</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10349,25 +10349,25 @@
         <v>61.2195535631142</v>
       </c>
       <c r="K32" t="n">
-        <v>170.7462904040689</v>
+        <v>40.50121272768598</v>
       </c>
       <c r="L32" t="n">
-        <v>143.2159065000776</v>
+        <v>12.97082882369466</v>
       </c>
       <c r="M32" t="n">
-        <v>77.14721805177261</v>
+        <v>112.6882932022774</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>107.7437935705617</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>117.2052866316984</v>
       </c>
       <c r="P32" t="n">
-        <v>158.4567735421063</v>
+        <v>28.21169586572341</v>
       </c>
       <c r="Q32" t="n">
-        <v>69.84514868689217</v>
+        <v>200.0902263632748</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>15.86258054204531</v>
+        <v>146.1076582184279</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,16 +10437,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>7.628147295371349</v>
       </c>
       <c r="O33" t="n">
-        <v>7.628147295371818</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>119.9731983637643</v>
+        <v>119.9731983637641</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8020291040114</v>
+        <v>43.55695142762845</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10507,16 +10507,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>55.43609297952345</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>107.9882061489421</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>169.8992607328597</v>
+        <v>64.10509197511743</v>
       </c>
       <c r="N34" t="n">
-        <v>161.0194780367409</v>
+        <v>161.0194780367406</v>
       </c>
       <c r="O34" t="n">
         <v>163.0416663658825</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>126.3420924013055</v>
+        <v>98.37673057294805</v>
       </c>
       <c r="K35" t="n">
         <v>40.50121272768598</v>
       </c>
       <c r="L35" t="n">
-        <v>57.90536949734881</v>
+        <v>78.09336766188591</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,13 +10598,13 @@
         <v>42.62125473237037</v>
       </c>
       <c r="O35" t="n">
-        <v>57.34517517437092</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>28.21169586572341</v>
       </c>
       <c r="Q35" t="n">
-        <v>69.84514868689217</v>
+        <v>134.9676875250834</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>55.46987292544743</v>
+        <v>120.5924117636387</v>
       </c>
       <c r="K36" t="n">
-        <v>80.98511938023655</v>
+        <v>15.86258054204531</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10826,22 +10826,22 @@
         <v>40.50121272768598</v>
       </c>
       <c r="L38" t="n">
-        <v>12.97082882369466</v>
+        <v>78.09336766188591</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>47.56575436408608</v>
       </c>
       <c r="N38" t="n">
-        <v>22.43325656783328</v>
+        <v>42.62125473237037</v>
       </c>
       <c r="O38" t="n">
-        <v>57.34517517437092</v>
+        <v>54.713961483939</v>
       </c>
       <c r="P38" t="n">
-        <v>93.33423470391466</v>
+        <v>28.21169586572341</v>
       </c>
       <c r="Q38" t="n">
-        <v>134.9676875250834</v>
+        <v>69.84514868689217</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>120.5924117636387</v>
+        <v>60.95597817540209</v>
       </c>
       <c r="K39" t="n">
-        <v>21.34868579199997</v>
+        <v>80.98511938023655</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10984,16 +10984,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>105.8537754062989</v>
+        <v>51.91488835073789</v>
       </c>
       <c r="M40" t="n">
-        <v>50.83783483910707</v>
+        <v>39.65418305647682</v>
       </c>
       <c r="N40" t="n">
         <v>95.89693919854926</v>
       </c>
       <c r="O40" t="n">
-        <v>48.94341134778536</v>
+        <v>114.0659501859766</v>
       </c>
       <c r="P40" t="n">
         <v>126.256598779262</v>
@@ -11060,25 +11060,25 @@
         <v>61.2195535631142</v>
       </c>
       <c r="K41" t="n">
-        <v>105.6237515658772</v>
+        <v>40.50121272768598</v>
       </c>
       <c r="L41" t="n">
-        <v>12.97082882369466</v>
+        <v>75.46215397145397</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>47.5657543640861</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>42.62125473237037</v>
       </c>
       <c r="O41" t="n">
-        <v>14.655892904013</v>
+        <v>57.34517517437092</v>
       </c>
       <c r="P41" t="n">
-        <v>93.33423470391466</v>
+        <v>28.21169586572341</v>
       </c>
       <c r="Q41" t="n">
-        <v>134.9676875250834</v>
+        <v>69.84514868689217</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11139,13 +11139,13 @@
         <v>55.46987292544743</v>
       </c>
       <c r="K42" t="n">
-        <v>15.86258054204531</v>
+        <v>80.98511938023655</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>5.486105249954669</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,10 +11154,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>5.486105249954662</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>108.6794902658197</v>
+        <v>43.55695142762845</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11218,7 +11218,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>106.7437663446525</v>
+        <v>55.43609297952345</v>
       </c>
       <c r="L43" t="n">
         <v>105.8537754062989</v>
@@ -11227,13 +11227,13 @@
         <v>104.7767218946681</v>
       </c>
       <c r="N43" t="n">
-        <v>95.89693919854926</v>
+        <v>30.77440036035802</v>
       </c>
       <c r="O43" t="n">
-        <v>60.12706313041561</v>
+        <v>111.4347364955447</v>
       </c>
       <c r="P43" t="n">
-        <v>61.13405994107075</v>
+        <v>126.256598779262</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,25 +11294,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>115.4411063192289</v>
+        <v>61.2195535631142</v>
       </c>
       <c r="K44" t="n">
-        <v>94.72276548380066</v>
+        <v>40.50121272768598</v>
       </c>
       <c r="L44" t="n">
         <v>12.97082882369466</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>36.66476828200948</v>
       </c>
       <c r="N44" t="n">
-        <v>11.97271436786077</v>
+        <v>31.72026865029378</v>
       </c>
       <c r="O44" t="n">
-        <v>46.44418909229438</v>
+        <v>46.44418909229435</v>
       </c>
       <c r="P44" t="n">
-        <v>28.21169586572341</v>
+        <v>80.24247881351022</v>
       </c>
       <c r="Q44" t="n">
         <v>69.84514868689217</v>
@@ -11379,7 +11379,7 @@
         <v>15.86258054204531</v>
       </c>
       <c r="L45" t="n">
-        <v>21.25473970975339</v>
+        <v>28.76030424765221</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>17.09139001426689</v>
+        <v>9.585825476367972</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11455,19 +11455,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>55.43609297952345</v>
       </c>
       <c r="L46" t="n">
-        <v>94.95278932422232</v>
+        <v>92.76201951589445</v>
       </c>
       <c r="M46" t="n">
-        <v>93.8757358125915</v>
+        <v>93.87573581259147</v>
       </c>
       <c r="N46" t="n">
-        <v>84.99595311647269</v>
+        <v>84.99595311647266</v>
       </c>
       <c r="O46" t="n">
-        <v>49.66652093044311</v>
+        <v>103.1649641039</v>
       </c>
       <c r="P46" t="n">
         <v>61.13405994107075</v>
@@ -23258,22 +23258,22 @@
         <v>230.1375135915128</v>
       </c>
       <c r="C11" t="n">
-        <v>212.6765636990398</v>
+        <v>147.5540248608484</v>
       </c>
       <c r="D11" t="n">
         <v>202.0867135487152</v>
       </c>
       <c r="E11" t="n">
-        <v>199.6764511630047</v>
+        <v>164.2115031621026</v>
       </c>
       <c r="F11" t="n">
-        <v>189.1571788315524</v>
+        <v>200.3702049041194</v>
       </c>
       <c r="G11" t="n">
-        <v>196.1720518628612</v>
+        <v>261.2945907010525</v>
       </c>
       <c r="H11" t="n">
-        <v>107.2971465129242</v>
+        <v>172.4196853511155</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>24.25192192833496</v>
       </c>
       <c r="T11" t="n">
         <v>64.31928494855576</v>
@@ -23315,7 +23315,7 @@
         <v>98.63637933649956</v>
       </c>
       <c r="V11" t="n">
-        <v>175.1559303981672</v>
+        <v>110.0333915599758</v>
       </c>
       <c r="W11" t="n">
         <v>196.6446406454453</v>
@@ -23334,10 +23334,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>13.93685557789959</v>
       </c>
       <c r="C12" t="n">
-        <v>2.2865039029363</v>
+        <v>20.11217091634799</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23388,22 +23388,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>44.52365034718511</v>
       </c>
       <c r="U12" t="n">
-        <v>73.2953573233324</v>
+        <v>8.172818485141022</v>
       </c>
       <c r="V12" t="n">
-        <v>80.20425907745752</v>
+        <v>15.08172023926615</v>
       </c>
       <c r="W12" t="n">
-        <v>33.97611625076058</v>
+        <v>33.97611625076048</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>0.8725370325494524</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>53.08636770533661</v>
       </c>
     </row>
     <row r="13">
@@ -23470,19 +23470,19 @@
         <v>72.64337186963334</v>
       </c>
       <c r="U13" t="n">
-        <v>78.11601285900349</v>
+        <v>78.11601285900338</v>
       </c>
       <c r="V13" t="n">
-        <v>34.41877641366898</v>
+        <v>34.41877641366888</v>
       </c>
       <c r="W13" t="n">
-        <v>133.9266702646233</v>
+        <v>68.80413142643188</v>
       </c>
       <c r="X13" t="n">
-        <v>7.99078847887813</v>
+        <v>7.990788478878031</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.8657864419357679</v>
+        <v>65.98832528012704</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23501,7 @@
         <v>185.0311693498124</v>
       </c>
       <c r="E14" t="n">
-        <v>147.1559589632</v>
+        <v>212.2784978013913</v>
       </c>
       <c r="F14" t="n">
         <v>237.2241734708409</v>
@@ -23510,7 +23510,7 @@
         <v>244.2390465021497</v>
       </c>
       <c r="H14" t="n">
-        <v>90.24160231402143</v>
+        <v>145.2679496931869</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.196377729432186</v>
+        <v>7.196377729432193</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>81.58083513759679</v>
+        <v>16.45829629940555</v>
       </c>
       <c r="V14" t="n">
         <v>158.1003861992644</v>
       </c>
       <c r="W14" t="n">
-        <v>114.4665576083512</v>
+        <v>179.5890964465425</v>
       </c>
       <c r="X14" t="n">
-        <v>189.9830369485727</v>
+        <v>134.9566895694073</v>
       </c>
       <c r="Y14" t="n">
-        <v>216.5860663851831</v>
+        <v>151.4635275469918</v>
       </c>
     </row>
     <row r="15">
@@ -23628,13 +23628,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>31.40356070524617</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>31.40356070524622</v>
       </c>
       <c r="W15" t="n">
-        <v>16.92057205185782</v>
+        <v>16.92057205185785</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.18010791106678</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>43.32815098744995</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>55.58782767073058</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>51.51007497738637</v>
+        <v>51.5100749773864</v>
       </c>
       <c r="V16" t="n">
-        <v>17.36323221476621</v>
+        <v>17.36323221476624</v>
       </c>
       <c r="W16" t="n">
-        <v>51.74858722752921</v>
+        <v>103.4847415880977</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>56.05778311816664</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.63063199071206</v>
+        <v>48.93278108122428</v>
       </c>
     </row>
     <row r="17">
@@ -23741,13 +23741,13 @@
         <v>212.2784978013913</v>
       </c>
       <c r="F17" t="n">
-        <v>172.1016346326496</v>
+        <v>237.2241734708409</v>
       </c>
       <c r="G17" t="n">
-        <v>179.1165076639584</v>
+        <v>244.2390465021497</v>
       </c>
       <c r="H17" t="n">
-        <v>90.24160231402143</v>
+        <v>155.3641411522127</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,25 +23780,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.196377729432186</v>
+        <v>7.196377729432193</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>47.263740749653</v>
       </c>
       <c r="U17" t="n">
-        <v>71.48464367857095</v>
+        <v>81.58083513759679</v>
       </c>
       <c r="V17" t="n">
-        <v>158.1003861992644</v>
+        <v>92.97784736107315</v>
       </c>
       <c r="W17" t="n">
-        <v>179.5890964465425</v>
+        <v>114.4665576083513</v>
       </c>
       <c r="X17" t="n">
-        <v>200.0792284075985</v>
+        <v>134.9566895694073</v>
       </c>
       <c r="Y17" t="n">
-        <v>216.5860663851831</v>
+        <v>159.2261341765042</v>
       </c>
     </row>
     <row r="18">
@@ -23865,13 +23865,13 @@
         <v>27.46810614828235</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>3.935454556963869</v>
       </c>
       <c r="V18" t="n">
-        <v>3.935454556963812</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>16.92057205185782</v>
+        <v>16.92057205185785</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.408003373118511</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23938,25 +23938,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>43.32815098744995</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>55.58782767073058</v>
       </c>
       <c r="U19" t="n">
-        <v>51.51007497738637</v>
+        <v>51.5100749773864</v>
       </c>
       <c r="V19" t="n">
-        <v>17.36323221476621</v>
+        <v>82.48577105295749</v>
       </c>
       <c r="W19" t="n">
-        <v>51.74858722752921</v>
+        <v>87.76493927856681</v>
       </c>
       <c r="X19" t="n">
-        <v>56.05778311816664</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.93278108122428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>146.1204486428381</v>
+        <v>137.0584444723422</v>
       </c>
       <c r="C20" t="n">
         <v>195.621019500137</v>
@@ -23981,10 +23981,10 @@
         <v>237.2241734708409</v>
       </c>
       <c r="G20" t="n">
-        <v>244.2390465021497</v>
+        <v>168.2155215818818</v>
       </c>
       <c r="H20" t="n">
-        <v>155.3641411522127</v>
+        <v>79.34061623194486</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.196377729432186</v>
+        <v>7.196377729432193</v>
       </c>
       <c r="T20" t="n">
-        <v>47.263740749653</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>81.58083513759679</v>
@@ -24029,13 +24029,13 @@
         <v>158.1003861992644</v>
       </c>
       <c r="W20" t="n">
-        <v>103.5655715262747</v>
+        <v>179.5890964465425</v>
       </c>
       <c r="X20" t="n">
-        <v>124.0557034873307</v>
+        <v>200.0792284075985</v>
       </c>
       <c r="Y20" t="n">
-        <v>140.5625414649152</v>
+        <v>196.8882863850642</v>
       </c>
     </row>
     <row r="21">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.18010791106678</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>40.6090888953098</v>
+        <v>111.7106939939083</v>
       </c>
       <c r="V22" t="n">
         <v>82.48577105295749</v>
       </c>
       <c r="W22" t="n">
-        <v>101.7690983329844</v>
+        <v>40.84760114545264</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24203,13 +24203,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.83689171622717</v>
+        <v>82.83689171622746</v>
       </c>
       <c r="C23" t="n">
-        <v>65.37594182375415</v>
+        <v>195.621019500137</v>
       </c>
       <c r="D23" t="n">
-        <v>54.78609167342955</v>
+        <v>185.0311693498124</v>
       </c>
       <c r="E23" t="n">
         <v>212.2784978013913</v>
@@ -24254,7 +24254,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.196377729432186</v>
+        <v>7.196377729432193</v>
       </c>
       <c r="T23" t="n">
         <v>47.263740749653</v>
@@ -24266,13 +24266,13 @@
         <v>158.1003861992644</v>
       </c>
       <c r="W23" t="n">
-        <v>179.5890964465425</v>
+        <v>64.86923202918474</v>
       </c>
       <c r="X23" t="n">
-        <v>200.0792284075985</v>
+        <v>69.83415073121591</v>
       </c>
       <c r="Y23" t="n">
-        <v>101.8662019678251</v>
+        <v>86.34098870880047</v>
       </c>
     </row>
     <row r="24">
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>24.62106425638719</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>24.62106425638825</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>246.3282229531133</v>
+        <v>116.0831452767307</v>
       </c>
       <c r="C26" t="n">
         <v>228.8672730606403</v>
       </c>
       <c r="D26" t="n">
-        <v>218.2774229103157</v>
+        <v>88.03234523393311</v>
       </c>
       <c r="E26" t="n">
         <v>245.5247513618945</v>
@@ -24455,13 +24455,13 @@
         <v>270.4704270313442</v>
       </c>
       <c r="G26" t="n">
-        <v>147.2402223862701</v>
+        <v>277.485300062653</v>
       </c>
       <c r="H26" t="n">
-        <v>188.610394712716</v>
+        <v>58.36531703633338</v>
       </c>
       <c r="I26" t="n">
-        <v>19.64112880465508</v>
+        <v>19.64112880465509</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,16 +24494,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>6.232761182733995</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>114.8270886981001</v>
       </c>
       <c r="V26" t="n">
-        <v>182.1614119642186</v>
+        <v>191.3466397597677</v>
       </c>
       <c r="W26" t="n">
-        <v>82.59027233066288</v>
+        <v>212.8353500070458</v>
       </c>
       <c r="X26" t="n">
         <v>233.3254819681018</v>
@@ -24522,19 +24522,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>36.3028802779485</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>21.23946174503371</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>8.663593683016643</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.1825088305882581</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -24576,7 +24576,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>72.54399746859087</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24588,7 +24588,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>66.32668144927985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>43.42636147157006</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>10.02834393620194</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>9.015429312564009</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>30.95206736397483</v>
       </c>
       <c r="H28" t="n">
-        <v>20.19100078010757</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,22 +24649,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>3.664846478491953</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>19.63378969969804</v>
+        <v>136.2525384319995</v>
       </c>
       <c r="V28" t="n">
         <v>115.7320246134608</v>
       </c>
       <c r="W28" t="n">
-        <v>19.87230194984087</v>
+        <v>19.87230194984116</v>
       </c>
       <c r="X28" t="n">
-        <v>89.30403667866992</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>82.17903464172755</v>
@@ -24677,16 +24677,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>115.0557709373672</v>
+        <v>99.53055767834257</v>
       </c>
       <c r="C29" t="n">
-        <v>82.06960778586927</v>
+        <v>212.3146854622522</v>
       </c>
       <c r="D29" t="n">
-        <v>71.47975763554467</v>
+        <v>201.7248353119276</v>
       </c>
       <c r="E29" t="n">
-        <v>228.9721637635064</v>
+        <v>149.327670687513</v>
       </c>
       <c r="F29" t="n">
         <v>253.917839432956</v>
@@ -24698,7 +24698,7 @@
         <v>172.0578071143278</v>
       </c>
       <c r="I29" t="n">
-        <v>3.088541206266918</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,10 +24731,10 @@
         <v>23.89004369154731</v>
       </c>
       <c r="T29" t="n">
-        <v>63.95740671176812</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>98.27450109971191</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>174.7940521613795</v>
@@ -24746,7 +24746,7 @@
         <v>216.7728943697136</v>
       </c>
       <c r="Y29" t="n">
-        <v>103.0346546709153</v>
+        <v>103.0346546709156</v>
       </c>
     </row>
     <row r="30">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>26.8737738731819</v>
       </c>
       <c r="C31" t="n">
         <v>14.28861478987244</v>
@@ -24886,25 +24886,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>13.39157937692438</v>
+        <v>52.61420799451842</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>72.2814936328457</v>
       </c>
       <c r="U31" t="n">
-        <v>3.081202101309884</v>
+        <v>3.081202101310168</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>3.319714351452717</v>
+        <v>3.319714351453001</v>
       </c>
       <c r="X31" t="n">
-        <v>72.75144908028176</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>65.6264470433394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,22 +24914,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>91.16572724581987</v>
+        <v>205.8855916631779</v>
       </c>
       <c r="C32" t="n">
         <v>188.4246417707049</v>
       </c>
       <c r="D32" t="n">
-        <v>177.8347916203803</v>
+        <v>47.58971394399765</v>
       </c>
       <c r="E32" t="n">
         <v>205.0821200719591</v>
       </c>
       <c r="F32" t="n">
-        <v>99.78271806502585</v>
+        <v>230.0277957414087</v>
       </c>
       <c r="G32" t="n">
-        <v>237.0426687727175</v>
+        <v>196.7072617635243</v>
       </c>
       <c r="H32" t="n">
         <v>148.1677634227805</v>
@@ -24971,19 +24971,19 @@
         <v>40.06736302022081</v>
       </c>
       <c r="U32" t="n">
-        <v>74.38445740816461</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>20.65893079344931</v>
+        <v>20.6589307934496</v>
       </c>
       <c r="W32" t="n">
-        <v>172.3927187171103</v>
+        <v>42.14764104072771</v>
       </c>
       <c r="X32" t="n">
         <v>192.8828506781663</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.144610979368</v>
+        <v>209.3896886557509</v>
       </c>
     </row>
     <row r="33">
@@ -25154,16 +25154,16 @@
         <v>205.8855916631779</v>
       </c>
       <c r="C35" t="n">
-        <v>131.064709562026</v>
+        <v>188.4246417707049</v>
       </c>
       <c r="D35" t="n">
-        <v>112.712252782189</v>
+        <v>177.8347916203803</v>
       </c>
       <c r="E35" t="n">
-        <v>139.9595812337678</v>
+        <v>205.0821200719591</v>
       </c>
       <c r="F35" t="n">
-        <v>164.9052569032175</v>
+        <v>230.0277957414087</v>
       </c>
       <c r="G35" t="n">
         <v>237.0426687727175</v>
@@ -25205,22 +25205,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>40.06736302022081</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>74.38445740816461</v>
       </c>
       <c r="V35" t="n">
-        <v>150.9040084698322</v>
+        <v>85.78146963164096</v>
       </c>
       <c r="W35" t="n">
-        <v>172.3927187171103</v>
+        <v>155.1001495286523</v>
       </c>
       <c r="X35" t="n">
-        <v>192.8828506781663</v>
+        <v>127.7603118399751</v>
       </c>
       <c r="Y35" t="n">
-        <v>209.3896886557509</v>
+        <v>144.2671498175596</v>
       </c>
     </row>
     <row r="36">
@@ -25360,13 +25360,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>27.16329099063731</v>
+        <v>4.247110951674244</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>48.39144994129839</v>
       </c>
       <c r="U37" t="n">
-        <v>44.31369724795421</v>
+        <v>109.4362360861455</v>
       </c>
       <c r="V37" t="n">
         <v>10.16685448533406</v>
@@ -25375,10 +25375,10 @@
         <v>44.55220949809706</v>
       </c>
       <c r="X37" t="n">
-        <v>48.86140538873445</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>41.73640335179209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,13 +25388,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>205.8855916631779</v>
+        <v>188.5930224747198</v>
       </c>
       <c r="C38" t="n">
-        <v>188.4246417707049</v>
+        <v>123.3021029325136</v>
       </c>
       <c r="D38" t="n">
-        <v>177.8347916203803</v>
+        <v>112.712252782189</v>
       </c>
       <c r="E38" t="n">
         <v>205.0821200719591</v>
@@ -25403,7 +25403,7 @@
         <v>230.0277957414087</v>
       </c>
       <c r="G38" t="n">
-        <v>237.0426687727175</v>
+        <v>171.9201299345262</v>
       </c>
       <c r="H38" t="n">
         <v>148.1677634227805</v>
@@ -25445,16 +25445,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>9.261918569973361</v>
+        <v>74.38445740816461</v>
       </c>
       <c r="V38" t="n">
-        <v>85.78146963164096</v>
+        <v>150.9040084698322</v>
       </c>
       <c r="W38" t="n">
-        <v>107.2701798789191</v>
+        <v>172.3927187171103</v>
       </c>
       <c r="X38" t="n">
-        <v>175.5902814897083</v>
+        <v>192.8828506781663</v>
       </c>
       <c r="Y38" t="n">
         <v>209.3896886557509</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.983730181634598</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25597,25 +25597,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>4.247110951674244</v>
+        <v>36.13177325801777</v>
       </c>
       <c r="T40" t="n">
-        <v>48.39144994129839</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>44.31369724795421</v>
       </c>
       <c r="V40" t="n">
-        <v>75.2893933235253</v>
+        <v>10.16685448533406</v>
       </c>
       <c r="W40" t="n">
         <v>44.55220949809706</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>48.86140538873445</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>35.75165126604625</v>
       </c>
     </row>
     <row r="41">
@@ -25631,13 +25631,13 @@
         <v>242.6521774439781</v>
       </c>
       <c r="D41" t="n">
-        <v>239.8249339231659</v>
+        <v>243.510717316104</v>
       </c>
       <c r="E41" t="n">
         <v>324.4321945834236</v>
       </c>
       <c r="F41" t="n">
-        <v>284.255331414682</v>
+        <v>349.3778702528732</v>
       </c>
       <c r="G41" t="n">
         <v>356.392743284182</v>
@@ -25673,10 +25673,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>3.685783392938163</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>54.22753567327322</v>
+        <v>119.3500745114645</v>
       </c>
       <c r="T41" t="n">
         <v>159.4174375316853</v>
@@ -25685,13 +25685,13 @@
         <v>193.7345319196291</v>
       </c>
       <c r="V41" t="n">
-        <v>270.2540829812967</v>
+        <v>205.1315441431054</v>
       </c>
       <c r="W41" t="n">
         <v>291.7427932285748</v>
       </c>
       <c r="X41" t="n">
-        <v>312.2329251896308</v>
+        <v>247.1103863514396</v>
       </c>
       <c r="Y41" t="n">
         <v>328.7397631672154</v>
@@ -25707,22 +25707,22 @@
         <v>109.0350081610291</v>
       </c>
       <c r="C42" t="n">
-        <v>50.08778466128626</v>
+        <v>115.2103234994775</v>
       </c>
       <c r="D42" t="n">
-        <v>89.94689007580052</v>
+        <v>38.47748305994917</v>
       </c>
       <c r="E42" t="n">
-        <v>96.11929324132653</v>
+        <v>35.02436612837147</v>
       </c>
       <c r="F42" t="n">
-        <v>87.57103690454565</v>
+        <v>22.4484980663544</v>
       </c>
       <c r="G42" t="n">
-        <v>79.08995205211727</v>
+        <v>13.96741321392602</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>47.44179529061516</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25755,13 +25755,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>35.03142585465694</v>
+        <v>100.1539646928482</v>
       </c>
       <c r="T42" t="n">
         <v>139.6218029303146</v>
       </c>
       <c r="U42" t="n">
-        <v>103.2709710682707</v>
+        <v>168.3935099064619</v>
       </c>
       <c r="V42" t="n">
         <v>175.302411660587</v>
@@ -25798,7 +25798,7 @@
         <v>87.92287253409302</v>
       </c>
       <c r="G43" t="n">
-        <v>44.73697174731259</v>
+        <v>109.8595105855038</v>
       </c>
       <c r="H43" t="n">
         <v>99.09844400163658</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>33.96011474109647</v>
+        <v>26.19750811158407</v>
       </c>
       <c r="S43" t="n">
-        <v>155.4818477694822</v>
+        <v>90.359308931291</v>
       </c>
       <c r="T43" t="n">
-        <v>167.7415244527629</v>
+        <v>110.381592244084</v>
       </c>
       <c r="U43" t="n">
         <v>228.7863105976099</v>
       </c>
       <c r="V43" t="n">
-        <v>194.6394678349898</v>
+        <v>129.5169289967985</v>
       </c>
       <c r="W43" t="n">
         <v>229.0248228477528</v>
       </c>
       <c r="X43" t="n">
-        <v>103.0889410620077</v>
+        <v>168.2114799001989</v>
       </c>
       <c r="Y43" t="n">
-        <v>95.96393902506532</v>
+        <v>161.0864778632566</v>
       </c>
     </row>
     <row r="44">
@@ -25871,19 +25871,19 @@
         <v>330.7929979291357</v>
       </c>
       <c r="E44" t="n">
-        <v>303.8187736245998</v>
+        <v>358.0403263807145</v>
       </c>
       <c r="F44" t="n">
-        <v>382.9860020501641</v>
+        <v>328.7644492940495</v>
       </c>
       <c r="G44" t="n">
-        <v>390.0008750814729</v>
+        <v>335.7793223253582</v>
       </c>
       <c r="H44" t="n">
-        <v>301.1259697315359</v>
+        <v>246.9044169754213</v>
       </c>
       <c r="I44" t="n">
-        <v>77.93515106736035</v>
+        <v>132.156703823475</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,10 +25910,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.29391519022909</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>105.1998626411696</v>
+        <v>142.4937778313987</v>
       </c>
       <c r="T44" t="n">
         <v>193.0255693289762</v>
@@ -25925,7 +25925,7 @@
         <v>303.8622147785876</v>
       </c>
       <c r="W44" t="n">
-        <v>271.129372269751</v>
+        <v>325.3509250258657</v>
       </c>
       <c r="X44" t="n">
         <v>345.8410569869217</v>
@@ -25941,25 +25941,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>142.64313995832</v>
+        <v>94.88479629073427</v>
       </c>
       <c r="C45" t="n">
         <v>148.8184552967684</v>
       </c>
       <c r="D45" t="n">
-        <v>69.33346911697677</v>
+        <v>69.3334691169768</v>
       </c>
       <c r="E45" t="n">
-        <v>79.53348400773896</v>
+        <v>133.7550367638536</v>
       </c>
       <c r="F45" t="n">
         <v>121.1791687018366</v>
       </c>
       <c r="G45" t="n">
-        <v>64.9397401818224</v>
+        <v>58.47653109329354</v>
       </c>
       <c r="H45" t="n">
-        <v>26.82837433179141</v>
+        <v>81.04992708790608</v>
       </c>
       <c r="I45" t="n">
         <v>39.49865699011841</v>
@@ -25992,7 +25992,7 @@
         <v>29.36737163371084</v>
       </c>
       <c r="S45" t="n">
-        <v>133.7620964901391</v>
+        <v>79.54054373402448</v>
       </c>
       <c r="T45" t="n">
         <v>173.2299347276056</v>
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>108.1835928228042</v>
+        <v>155.94193649039</v>
       </c>
       <c r="C46" t="n">
-        <v>89.13522465096585</v>
+        <v>143.3567774070805</v>
       </c>
       <c r="D46" t="n">
         <v>124.7254293266651</v>
@@ -26038,10 +26038,10 @@
         <v>143.4676423827948</v>
       </c>
       <c r="H46" t="n">
-        <v>78.48502304281283</v>
+        <v>132.7065757989275</v>
       </c>
       <c r="I46" t="n">
-        <v>58.29402226270525</v>
+        <v>112.5155750188199</v>
       </c>
       <c r="J46" t="n">
         <v>24.6953012380754</v>
@@ -26068,16 +26068,16 @@
         <v>9.242322832884874</v>
       </c>
       <c r="R46" t="n">
-        <v>124.9281787470662</v>
+        <v>77.16983507948046</v>
       </c>
       <c r="S46" t="n">
-        <v>189.0899795667732</v>
+        <v>134.8684268106585</v>
       </c>
       <c r="T46" t="n">
-        <v>201.3496562500538</v>
+        <v>147.1281034939391</v>
       </c>
       <c r="U46" t="n">
-        <v>262.3944423949009</v>
+        <v>208.1728896387862</v>
       </c>
       <c r="V46" t="n">
         <v>228.2475996322807</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>514151.7700553808</v>
+        <v>514151.770055381</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>536586.0908107115</v>
+        <v>536586.0908107114</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>544838.879365527</v>
+        <v>544838.8793655271</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>579171.5897155853</v>
+        <v>579171.5897155852</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>537891.7591720548</v>
+        <v>537891.7591720547</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>561813.620333476</v>
+        <v>561813.6203334759</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>585844.7651005556</v>
+        <v>585844.7651005555</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>545140.5293836158</v>
+        <v>545140.5293836159</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>545140.5293836158</v>
+        <v>545140.5293836159</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>356402.1487067949</v>
+        <v>356402.148706795</v>
       </c>
     </row>
     <row r="16">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>798794.4302491122</v>
+        <v>798794.4302491123</v>
       </c>
       <c r="C2" t="n">
         <v>798794.4302491121</v>
       </c>
       <c r="D2" t="n">
-        <v>798794.4302491128</v>
+        <v>798794.4302491124</v>
       </c>
       <c r="E2" t="n">
-        <v>602335.9841767496</v>
+        <v>602335.9841767497</v>
       </c>
       <c r="F2" t="n">
         <v>630559.8070624884</v>
       </c>
       <c r="G2" t="n">
-        <v>630559.8070624882</v>
+        <v>630559.8070624883</v>
       </c>
       <c r="H2" t="n">
-        <v>636581.8592976634</v>
+        <v>636581.8592976639</v>
       </c>
       <c r="I2" t="n">
-        <v>658085.5364072029</v>
+        <v>658085.5364072027</v>
       </c>
       <c r="J2" t="n">
-        <v>606152.8463685665</v>
+        <v>606152.8463685667</v>
       </c>
       <c r="K2" t="n">
-        <v>636248.0910555166</v>
+        <v>636248.0910555164</v>
       </c>
       <c r="L2" t="n">
-        <v>666480.8215689396</v>
+        <v>666480.8215689394</v>
       </c>
       <c r="M2" t="n">
-        <v>641321.8426864648</v>
+        <v>641321.8426864647</v>
       </c>
       <c r="N2" t="n">
-        <v>641321.8426864648</v>
+        <v>641321.8426864645</v>
       </c>
       <c r="O2" t="n">
         <v>403876.7831253029</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>423668.2488105431</v>
+        <v>423668.248810543</v>
       </c>
       <c r="F3" t="n">
         <v>13644.43535912221</v>
@@ -26381,10 +26381,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2941.184153818998</v>
+        <v>2941.184153819006</v>
       </c>
       <c r="I3" t="n">
-        <v>14418.64953045887</v>
+        <v>14418.6495304588</v>
       </c>
       <c r="J3" t="n">
         <v>95480.05960917157</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461720.8585193183</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="C4" t="n">
-        <v>461720.8585193183</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>461720.8585193183</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="E4" t="n">
-        <v>228867.037534746</v>
+        <v>229294.722988301</v>
       </c>
       <c r="F4" t="n">
-        <v>245382.8709339839</v>
+        <v>245810.5563875388</v>
       </c>
       <c r="G4" t="n">
-        <v>245382.8709339839</v>
+        <v>245810.5563875388</v>
       </c>
       <c r="H4" t="n">
-        <v>248816.4446777972</v>
+        <v>249286.0382799666</v>
       </c>
       <c r="I4" t="n">
-        <v>260946.6855396095</v>
+        <v>261624.7304574582</v>
       </c>
       <c r="J4" t="n">
-        <v>230545.1782373114</v>
+        <v>231223.2231551601</v>
       </c>
       <c r="K4" t="n">
-        <v>248168.6780293088</v>
+        <v>248846.7229471575</v>
       </c>
       <c r="L4" t="n">
-        <v>265861.3033450715</v>
+        <v>266539.3482629202</v>
       </c>
       <c r="M4" t="n">
-        <v>251681.2892191677</v>
+        <v>252108.9746727226</v>
       </c>
       <c r="N4" t="n">
-        <v>251681.2892191677</v>
+        <v>252108.9746727226</v>
       </c>
       <c r="O4" t="n">
-        <v>112680.4458818991</v>
+        <v>113108.131335454</v>
       </c>
       <c r="P4" t="n">
-        <v>64325.62489869101</v>
+        <v>64714.47589745001</v>
       </c>
     </row>
     <row r="5">
@@ -26488,16 +26488,16 @@
         <v>26540.63364889552</v>
       </c>
       <c r="I5" t="n">
-        <v>29837.30405646731</v>
+        <v>29837.3040564673</v>
       </c>
       <c r="J5" t="n">
-        <v>27042.32476588936</v>
+        <v>27042.32476588935</v>
       </c>
       <c r="K5" t="n">
-        <v>28433.88425269826</v>
+        <v>28433.88425269824</v>
       </c>
       <c r="L5" t="n">
-        <v>30442.29633580295</v>
+        <v>30442.29633580293</v>
       </c>
       <c r="M5" t="n">
         <v>26482.8459744409</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>303445.9717297939</v>
+        <v>302016.0991470026</v>
       </c>
       <c r="C6" t="n">
-        <v>303445.9717297938</v>
+        <v>302016.0991470023</v>
       </c>
       <c r="D6" t="n">
-        <v>303445.9717297945</v>
+        <v>302016.0991470027</v>
       </c>
       <c r="E6" t="n">
-        <v>-74643.31331838723</v>
+        <v>-75070.99877194205</v>
       </c>
       <c r="F6" t="n">
-        <v>345654.647074277</v>
+        <v>345226.9616207221</v>
       </c>
       <c r="G6" t="n">
-        <v>359299.082433399</v>
+        <v>358871.3969798442</v>
       </c>
       <c r="H6" t="n">
-        <v>358283.5968171518</v>
+        <v>357814.0032149827</v>
       </c>
       <c r="I6" t="n">
-        <v>352882.8972806673</v>
+        <v>352204.8523628184</v>
       </c>
       <c r="J6" t="n">
-        <v>253085.2837561942</v>
+        <v>252407.2388383457</v>
       </c>
       <c r="K6" t="n">
-        <v>332759.0233356768</v>
+        <v>332080.9784178279</v>
       </c>
       <c r="L6" t="n">
-        <v>351065.1869348273</v>
+        <v>350387.1420169784</v>
       </c>
       <c r="M6" t="n">
-        <v>363157.7074928561</v>
+        <v>362730.0220393011</v>
       </c>
       <c r="N6" t="n">
-        <v>363157.7074928561</v>
+        <v>362730.022039301</v>
       </c>
       <c r="O6" t="n">
-        <v>274747.1326830672</v>
+        <v>274319.4472295123</v>
       </c>
       <c r="P6" t="n">
-        <v>243403.375057349</v>
+        <v>243014.52405859</v>
       </c>
     </row>
   </sheetData>
@@ -26744,25 +26744,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>351.1899121010743</v>
+        <v>351.1899121010742</v>
       </c>
       <c r="F3" t="n">
-        <v>351.1899121010743</v>
+        <v>351.1899121010742</v>
       </c>
       <c r="G3" t="n">
-        <v>351.1899121010743</v>
+        <v>351.1899121010742</v>
       </c>
       <c r="H3" t="n">
-        <v>351.1899121010743</v>
+        <v>351.1899121010742</v>
       </c>
       <c r="I3" t="n">
-        <v>351.1899121010743</v>
+        <v>351.1899121010742</v>
       </c>
       <c r="J3" t="n">
-        <v>351.1899121010743</v>
+        <v>351.1899121010742</v>
       </c>
       <c r="K3" t="n">
-        <v>351.1899121010743</v>
+        <v>351.1899121010742</v>
       </c>
       <c r="L3" t="n">
         <v>351.1899121010742</v>
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>65.12253883819128</v>
+        <v>65.12253883819137</v>
       </c>
       <c r="F4" t="n">
-        <v>65.12253883819128</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="G4" t="n">
-        <v>65.12253883819128</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="H4" t="n">
         <v>76.02352492026785</v>
       </c>
       <c r="I4" t="n">
-        <v>130.2450776763829</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="J4" t="n">
-        <v>130.2450776763829</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="K4" t="n">
-        <v>130.2450776763829</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="L4" t="n">
-        <v>130.2450776763829</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="M4" t="n">
         <v>65.12253883819125</v>
@@ -26829,7 +26829,7 @@
         <v>65.12253883819125</v>
       </c>
       <c r="P4" t="n">
-        <v>54.22155275611468</v>
+        <v>54.22155275611465</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>351.1899121010743</v>
+        <v>351.1899121010742</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>65.12253883819128</v>
+        <v>65.12253883819137</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,10 +27027,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>10.90098608207657</v>
+        <v>10.9009860820766</v>
       </c>
       <c r="I4" t="n">
-        <v>54.22155275611505</v>
+        <v>54.22155275611478</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>65.12253883819128</v>
+        <v>65.12253883819137</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>10.90098608207657</v>
+        <v>10.9009860820766</v>
       </c>
     </row>
   </sheetData>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>61.18395888177638</v>
+        <v>61.18395888177639</v>
       </c>
       <c r="S11" t="n">
         <v>152.5963280719677</v>
@@ -28187,7 +28187,7 @@
         <v>104.9399707794534</v>
       </c>
       <c r="I12" t="n">
-        <v>63.3887006816657</v>
+        <v>63.38870068166571</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28269,7 +28269,7 @@
         <v>136.4056187103672</v>
       </c>
       <c r="J13" t="n">
-        <v>48.5853449296227</v>
+        <v>48.58534492962271</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>33.13236652443216</v>
+        <v>33.13236652443218</v>
       </c>
       <c r="R13" t="n">
         <v>148.8182224386135</v>
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>61.18395888177638</v>
+        <v>61.18395888177639</v>
       </c>
       <c r="S14" t="n">
         <v>169.6518722708705</v>
@@ -28424,7 +28424,7 @@
         <v>104.9399707794534</v>
       </c>
       <c r="I15" t="n">
-        <v>63.3887006816657</v>
+        <v>63.38870068166571</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>136.4056187103672</v>
       </c>
       <c r="J16" t="n">
-        <v>48.5853449296227</v>
+        <v>48.58534492962271</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>33.13236652443216</v>
+        <v>33.13236652443218</v>
       </c>
       <c r="R16" t="n">
         <v>148.8182224386135</v>
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>61.18395888177638</v>
+        <v>61.18395888177639</v>
       </c>
       <c r="S17" t="n">
         <v>169.6518722708705</v>
@@ -28661,7 +28661,7 @@
         <v>104.9399707794534</v>
       </c>
       <c r="I18" t="n">
-        <v>63.3887006816657</v>
+        <v>63.38870068166571</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>136.4056187103672</v>
       </c>
       <c r="J19" t="n">
-        <v>48.5853449296227</v>
+        <v>48.58534492962271</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>33.13236652443216</v>
+        <v>33.13236652443218</v>
       </c>
       <c r="R19" t="n">
         <v>148.8182224386135</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>61.18395888177638</v>
+        <v>61.18395888177639</v>
       </c>
       <c r="S20" t="n">
         <v>169.6518722708705</v>
@@ -28898,7 +28898,7 @@
         <v>104.9399707794534</v>
       </c>
       <c r="I21" t="n">
-        <v>63.3887006816657</v>
+        <v>63.38870068166571</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>136.4056187103672</v>
       </c>
       <c r="J22" t="n">
-        <v>48.5853449296227</v>
+        <v>48.58534492962271</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>33.13236652443216</v>
+        <v>33.13236652443218</v>
       </c>
       <c r="R22" t="n">
         <v>148.8182224386135</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>61.18395888177638</v>
+        <v>61.18395888177639</v>
       </c>
       <c r="S23" t="n">
         <v>169.6518722708705</v>
@@ -29129,7 +29129,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.5881275409555</v>
+        <v>6.34304986457289</v>
       </c>
       <c r="H24" t="n">
         <v>104.9399707794534</v>
@@ -29177,13 +29177,13 @@
         <v>169.6518722708705</v>
       </c>
       <c r="W24" t="n">
-        <v>121.4499054845367</v>
+        <v>169.6518722708705</v>
       </c>
       <c r="X24" t="n">
+        <v>161.9388613802152</v>
+      </c>
+      <c r="Y24" t="n">
         <v>169.6518722708705</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>79.89575049016521</v>
       </c>
     </row>
     <row r="25">
@@ -29217,7 +29217,7 @@
         <v>136.4056187103672</v>
       </c>
       <c r="J25" t="n">
-        <v>48.5853449296227</v>
+        <v>48.58534492962271</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>33.13236652443216</v>
+        <v>33.13236652443218</v>
       </c>
       <c r="R25" t="n">
         <v>148.8182224386135</v>
@@ -29320,7 +29320,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>61.18395888177638</v>
+        <v>61.18395888177639</v>
       </c>
       <c r="S26" t="n">
         <v>136.4056187103672</v>
@@ -29372,7 +29372,7 @@
         <v>104.9399707794534</v>
       </c>
       <c r="I27" t="n">
-        <v>63.3887006816657</v>
+        <v>63.38870068166571</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29454,7 +29454,7 @@
         <v>136.4056187103672</v>
       </c>
       <c r="J28" t="n">
-        <v>48.5853449296227</v>
+        <v>48.58534492962271</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -29475,7 +29475,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>33.13236652443216</v>
+        <v>33.13236652443218</v>
       </c>
       <c r="R28" t="n">
         <v>136.4056187103672</v>
@@ -29557,7 +29557,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>61.18395888177638</v>
+        <v>61.18395888177639</v>
       </c>
       <c r="S29" t="n">
         <v>152.9582063087554</v>
@@ -29609,7 +29609,7 @@
         <v>104.9399707794534</v>
       </c>
       <c r="I30" t="n">
-        <v>1.853358528455232</v>
+        <v>63.38870068166571</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29642,10 +29642,10 @@
         <v>152.9582063087554</v>
       </c>
       <c r="T30" t="n">
-        <v>152.9582063087554</v>
+        <v>148.7344627453839</v>
       </c>
       <c r="U30" t="n">
-        <v>152.9582063087554</v>
+        <v>95.64660771891754</v>
       </c>
       <c r="V30" t="n">
         <v>152.9582063087554</v>
@@ -29691,7 +29691,7 @@
         <v>136.4056187103672</v>
       </c>
       <c r="J31" t="n">
-        <v>48.5853449296227</v>
+        <v>48.58534492962271</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29712,7 +29712,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>33.13236652443216</v>
+        <v>33.13236652443218</v>
       </c>
       <c r="R31" t="n">
         <v>148.8182224386135</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>36.28810597348473</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -29834,7 +29834,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>27.40000277901805</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -29885,13 +29885,13 @@
         <v>176.8482500003027</v>
       </c>
       <c r="V33" t="n">
+        <v>114.9099898497089</v>
+      </c>
+      <c r="W33" t="n">
+        <v>121.449905484537</v>
+      </c>
+      <c r="X33" t="n">
         <v>176.8482500003027</v>
-      </c>
-      <c r="W33" t="n">
-        <v>160.8319878071505</v>
-      </c>
-      <c r="X33" t="n">
-        <v>75.52790752709458</v>
       </c>
       <c r="Y33" t="n">
         <v>176.8482500003027</v>
@@ -29919,7 +29919,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3576860743421</v>
+        <v>134.4077284952729</v>
       </c>
       <c r="H34" t="n">
         <v>156.5966194904748</v>
@@ -29949,7 +29949,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.1824089453618853</v>
+        <v>33.13236652443218</v>
       </c>
       <c r="R34" t="n">
         <v>148.8182224386135</v>
@@ -30083,7 +30083,7 @@
         <v>104.9399707794534</v>
       </c>
       <c r="I36" t="n">
-        <v>58.81037273975098</v>
+        <v>63.38870068166571</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30119,7 +30119,7 @@
         <v>176.8482500003027</v>
       </c>
       <c r="U36" t="n">
-        <v>176.8482500003027</v>
+        <v>172.269922058388</v>
       </c>
       <c r="V36" t="n">
         <v>176.8482500003027</v>
@@ -30308,7 +30308,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>153.0667525134862</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>48.67908738334344</v>
+        <v>53.25741532525814</v>
       </c>
       <c r="S39" t="n">
         <v>157.6521401816864</v>
@@ -31756,7 +31756,7 @@
         <v>14.45878869268392</v>
       </c>
       <c r="I11" t="n">
-        <v>54.4291420553836</v>
+        <v>54.42914205538359</v>
       </c>
       <c r="J11" t="n">
         <v>119.8263509635721</v>
@@ -31774,22 +31774,22 @@
         <v>251.9143477024118</v>
       </c>
       <c r="O11" t="n">
-        <v>237.8755750855071</v>
+        <v>237.875575085507</v>
       </c>
       <c r="P11" t="n">
-        <v>203.0212998895462</v>
+        <v>203.0212998895461</v>
       </c>
       <c r="Q11" t="n">
         <v>152.4605411875573</v>
       </c>
       <c r="R11" t="n">
-        <v>88.68515905937331</v>
+        <v>88.68515905937329</v>
       </c>
       <c r="S11" t="n">
         <v>32.17181958594264</v>
       </c>
       <c r="T11" t="n">
-        <v>6.180236543607848</v>
+        <v>6.180236543607847</v>
       </c>
       <c r="U11" t="n">
         <v>0.1129454993691896</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7553896222551409</v>
+        <v>0.7553896222551408</v>
       </c>
       <c r="H12" t="n">
-        <v>7.295473457043073</v>
+        <v>7.295473457043072</v>
       </c>
       <c r="I12" t="n">
         <v>26.00793216974937</v>
       </c>
       <c r="J12" t="n">
-        <v>71.36775374121927</v>
+        <v>71.36775374121926</v>
       </c>
       <c r="K12" t="n">
         <v>121.9788584323137</v>
@@ -31847,7 +31847,7 @@
         <v>164.0156282883366</v>
       </c>
       <c r="M12" t="n">
-        <v>191.3985020950855</v>
+        <v>191.3985020950854</v>
       </c>
       <c r="N12" t="n">
         <v>196.4642509215246</v>
@@ -31859,10 +31859,10 @@
         <v>144.2462867269488</v>
       </c>
       <c r="Q12" t="n">
-        <v>96.4248226583931</v>
+        <v>96.42482265839307</v>
       </c>
       <c r="R12" t="n">
-        <v>46.900418827385</v>
+        <v>46.90041882738499</v>
       </c>
       <c r="S12" t="n">
         <v>14.0310309221514</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6332932841166913</v>
+        <v>0.6332932841166912</v>
       </c>
       <c r="H13" t="n">
-        <v>5.630553016964768</v>
+        <v>5.630553016964767</v>
       </c>
       <c r="I13" t="n">
-        <v>19.04485621689105</v>
+        <v>19.04485621689104</v>
       </c>
       <c r="J13" t="n">
-        <v>44.77383518705008</v>
+        <v>44.77383518705007</v>
       </c>
       <c r="K13" t="n">
         <v>73.57716519101193</v>
       </c>
       <c r="L13" t="n">
-        <v>94.15343971313065</v>
+        <v>94.15343971313064</v>
       </c>
       <c r="M13" t="n">
-        <v>99.27160089112824</v>
+        <v>99.27160089112823</v>
       </c>
       <c r="N13" t="n">
-        <v>96.91114410487521</v>
+        <v>96.91114410487518</v>
       </c>
       <c r="O13" t="n">
-        <v>89.51312710405746</v>
+        <v>89.51312710405743</v>
       </c>
       <c r="P13" t="n">
-        <v>76.59394410807688</v>
+        <v>76.59394410807687</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.02967672726222</v>
+        <v>53.02967672726221</v>
       </c>
       <c r="R13" t="n">
-        <v>28.47516893855595</v>
+        <v>28.47516893855594</v>
       </c>
       <c r="S13" t="n">
         <v>11.03657477865179</v>
       </c>
       <c r="T13" t="n">
-        <v>2.705889486680408</v>
+        <v>2.705889486680407</v>
       </c>
       <c r="U13" t="n">
         <v>0.03454327004272865</v>
@@ -31993,7 +31993,7 @@
         <v>14.45878869268392</v>
       </c>
       <c r="I14" t="n">
-        <v>54.4291420553836</v>
+        <v>54.42914205538359</v>
       </c>
       <c r="J14" t="n">
         <v>119.8263509635721</v>
@@ -32011,22 +32011,22 @@
         <v>251.9143477024118</v>
       </c>
       <c r="O14" t="n">
-        <v>237.8755750855071</v>
+        <v>237.875575085507</v>
       </c>
       <c r="P14" t="n">
-        <v>203.0212998895462</v>
+        <v>203.0212998895461</v>
       </c>
       <c r="Q14" t="n">
         <v>152.4605411875573</v>
       </c>
       <c r="R14" t="n">
-        <v>88.68515905937331</v>
+        <v>88.68515905937329</v>
       </c>
       <c r="S14" t="n">
         <v>32.17181958594264</v>
       </c>
       <c r="T14" t="n">
-        <v>6.180236543607848</v>
+        <v>6.180236543607847</v>
       </c>
       <c r="U14" t="n">
         <v>0.1129454993691896</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7553896222551409</v>
+        <v>0.7553896222551408</v>
       </c>
       <c r="H15" t="n">
-        <v>7.295473457043073</v>
+        <v>7.295473457043072</v>
       </c>
       <c r="I15" t="n">
         <v>26.00793216974937</v>
       </c>
       <c r="J15" t="n">
-        <v>71.36775374121927</v>
+        <v>71.36775374121926</v>
       </c>
       <c r="K15" t="n">
         <v>121.9788584323137</v>
@@ -32084,7 +32084,7 @@
         <v>164.0156282883366</v>
       </c>
       <c r="M15" t="n">
-        <v>191.3985020950855</v>
+        <v>191.3985020950854</v>
       </c>
       <c r="N15" t="n">
         <v>196.4642509215246</v>
@@ -32096,10 +32096,10 @@
         <v>144.2462867269488</v>
       </c>
       <c r="Q15" t="n">
-        <v>96.4248226583931</v>
+        <v>96.42482265839307</v>
       </c>
       <c r="R15" t="n">
-        <v>46.900418827385</v>
+        <v>46.90041882738499</v>
       </c>
       <c r="S15" t="n">
         <v>14.0310309221514</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6332932841166913</v>
+        <v>0.6332932841166912</v>
       </c>
       <c r="H16" t="n">
-        <v>5.630553016964768</v>
+        <v>5.630553016964767</v>
       </c>
       <c r="I16" t="n">
-        <v>19.04485621689105</v>
+        <v>19.04485621689104</v>
       </c>
       <c r="J16" t="n">
-        <v>44.77383518705008</v>
+        <v>44.77383518705007</v>
       </c>
       <c r="K16" t="n">
         <v>73.57716519101193</v>
       </c>
       <c r="L16" t="n">
-        <v>94.15343971313065</v>
+        <v>94.15343971313064</v>
       </c>
       <c r="M16" t="n">
-        <v>99.27160089112824</v>
+        <v>99.27160089112823</v>
       </c>
       <c r="N16" t="n">
-        <v>96.91114410487521</v>
+        <v>96.91114410487518</v>
       </c>
       <c r="O16" t="n">
-        <v>89.51312710405746</v>
+        <v>89.51312710405743</v>
       </c>
       <c r="P16" t="n">
-        <v>76.59394410807688</v>
+        <v>76.59394410807687</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.02967672726222</v>
+        <v>53.02967672726221</v>
       </c>
       <c r="R16" t="n">
-        <v>28.47516893855595</v>
+        <v>28.47516893855594</v>
       </c>
       <c r="S16" t="n">
         <v>11.03657477865179</v>
       </c>
       <c r="T16" t="n">
-        <v>2.705889486680408</v>
+        <v>2.705889486680407</v>
       </c>
       <c r="U16" t="n">
         <v>0.03454327004272865</v>
@@ -32230,7 +32230,7 @@
         <v>14.45878869268392</v>
       </c>
       <c r="I17" t="n">
-        <v>54.4291420553836</v>
+        <v>54.42914205538359</v>
       </c>
       <c r="J17" t="n">
         <v>119.8263509635721</v>
@@ -32248,22 +32248,22 @@
         <v>251.9143477024118</v>
       </c>
       <c r="O17" t="n">
-        <v>237.8755750855071</v>
+        <v>237.875575085507</v>
       </c>
       <c r="P17" t="n">
-        <v>203.0212998895462</v>
+        <v>203.0212998895461</v>
       </c>
       <c r="Q17" t="n">
         <v>152.4605411875573</v>
       </c>
       <c r="R17" t="n">
-        <v>88.68515905937331</v>
+        <v>88.68515905937329</v>
       </c>
       <c r="S17" t="n">
         <v>32.17181958594264</v>
       </c>
       <c r="T17" t="n">
-        <v>6.180236543607848</v>
+        <v>6.180236543607847</v>
       </c>
       <c r="U17" t="n">
         <v>0.1129454993691896</v>
@@ -32303,16 +32303,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7553896222551409</v>
+        <v>0.7553896222551408</v>
       </c>
       <c r="H18" t="n">
-        <v>7.295473457043073</v>
+        <v>7.295473457043072</v>
       </c>
       <c r="I18" t="n">
         <v>26.00793216974937</v>
       </c>
       <c r="J18" t="n">
-        <v>71.36775374121927</v>
+        <v>71.36775374121926</v>
       </c>
       <c r="K18" t="n">
         <v>121.9788584323137</v>
@@ -32321,7 +32321,7 @@
         <v>164.0156282883366</v>
       </c>
       <c r="M18" t="n">
-        <v>191.3985020950855</v>
+        <v>191.3985020950854</v>
       </c>
       <c r="N18" t="n">
         <v>196.4642509215246</v>
@@ -32333,10 +32333,10 @@
         <v>144.2462867269488</v>
       </c>
       <c r="Q18" t="n">
-        <v>96.4248226583931</v>
+        <v>96.42482265839307</v>
       </c>
       <c r="R18" t="n">
-        <v>46.900418827385</v>
+        <v>46.90041882738499</v>
       </c>
       <c r="S18" t="n">
         <v>14.0310309221514</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6332932841166913</v>
+        <v>0.6332932841166912</v>
       </c>
       <c r="H19" t="n">
-        <v>5.630553016964768</v>
+        <v>5.630553016964767</v>
       </c>
       <c r="I19" t="n">
-        <v>19.04485621689105</v>
+        <v>19.04485621689104</v>
       </c>
       <c r="J19" t="n">
-        <v>44.77383518705008</v>
+        <v>44.77383518705007</v>
       </c>
       <c r="K19" t="n">
         <v>73.57716519101193</v>
       </c>
       <c r="L19" t="n">
-        <v>94.15343971313065</v>
+        <v>94.15343971313064</v>
       </c>
       <c r="M19" t="n">
-        <v>99.27160089112824</v>
+        <v>99.27160089112823</v>
       </c>
       <c r="N19" t="n">
-        <v>96.91114410487521</v>
+        <v>96.91114410487518</v>
       </c>
       <c r="O19" t="n">
-        <v>89.51312710405746</v>
+        <v>89.51312710405743</v>
       </c>
       <c r="P19" t="n">
-        <v>76.59394410807688</v>
+        <v>76.59394410807687</v>
       </c>
       <c r="Q19" t="n">
-        <v>53.02967672726222</v>
+        <v>53.02967672726221</v>
       </c>
       <c r="R19" t="n">
-        <v>28.47516893855595</v>
+        <v>28.47516893855594</v>
       </c>
       <c r="S19" t="n">
         <v>11.03657477865179</v>
       </c>
       <c r="T19" t="n">
-        <v>2.705889486680408</v>
+        <v>2.705889486680407</v>
       </c>
       <c r="U19" t="n">
         <v>0.03454327004272865</v>
@@ -32467,7 +32467,7 @@
         <v>14.45878869268392</v>
       </c>
       <c r="I20" t="n">
-        <v>54.4291420553836</v>
+        <v>54.42914205538359</v>
       </c>
       <c r="J20" t="n">
         <v>119.8263509635721</v>
@@ -32485,22 +32485,22 @@
         <v>251.9143477024118</v>
       </c>
       <c r="O20" t="n">
-        <v>237.8755750855071</v>
+        <v>237.875575085507</v>
       </c>
       <c r="P20" t="n">
-        <v>203.0212998895462</v>
+        <v>203.0212998895461</v>
       </c>
       <c r="Q20" t="n">
         <v>152.4605411875573</v>
       </c>
       <c r="R20" t="n">
-        <v>88.68515905937331</v>
+        <v>88.68515905937329</v>
       </c>
       <c r="S20" t="n">
         <v>32.17181958594264</v>
       </c>
       <c r="T20" t="n">
-        <v>6.180236543607848</v>
+        <v>6.180236543607847</v>
       </c>
       <c r="U20" t="n">
         <v>0.1129454993691896</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7553896222551409</v>
+        <v>0.7553896222551408</v>
       </c>
       <c r="H21" t="n">
-        <v>7.295473457043073</v>
+        <v>7.295473457043072</v>
       </c>
       <c r="I21" t="n">
         <v>26.00793216974937</v>
       </c>
       <c r="J21" t="n">
-        <v>71.36775374121927</v>
+        <v>71.36775374121926</v>
       </c>
       <c r="K21" t="n">
         <v>121.9788584323137</v>
@@ -32558,7 +32558,7 @@
         <v>164.0156282883366</v>
       </c>
       <c r="M21" t="n">
-        <v>191.3985020950855</v>
+        <v>191.3985020950854</v>
       </c>
       <c r="N21" t="n">
         <v>196.4642509215246</v>
@@ -32570,10 +32570,10 @@
         <v>144.2462867269488</v>
       </c>
       <c r="Q21" t="n">
-        <v>96.4248226583931</v>
+        <v>96.42482265839307</v>
       </c>
       <c r="R21" t="n">
-        <v>46.900418827385</v>
+        <v>46.90041882738499</v>
       </c>
       <c r="S21" t="n">
         <v>14.0310309221514</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6332932841166913</v>
+        <v>0.6332932841166912</v>
       </c>
       <c r="H22" t="n">
-        <v>5.630553016964768</v>
+        <v>5.630553016964767</v>
       </c>
       <c r="I22" t="n">
-        <v>19.04485621689105</v>
+        <v>19.04485621689104</v>
       </c>
       <c r="J22" t="n">
-        <v>44.77383518705008</v>
+        <v>44.77383518705007</v>
       </c>
       <c r="K22" t="n">
         <v>73.57716519101193</v>
       </c>
       <c r="L22" t="n">
-        <v>94.15343971313065</v>
+        <v>94.15343971313064</v>
       </c>
       <c r="M22" t="n">
-        <v>99.27160089112824</v>
+        <v>99.27160089112823</v>
       </c>
       <c r="N22" t="n">
-        <v>96.91114410487521</v>
+        <v>96.91114410487518</v>
       </c>
       <c r="O22" t="n">
-        <v>89.51312710405746</v>
+        <v>89.51312710405743</v>
       </c>
       <c r="P22" t="n">
-        <v>76.59394410807688</v>
+        <v>76.59394410807687</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.02967672726222</v>
+        <v>53.02967672726221</v>
       </c>
       <c r="R22" t="n">
-        <v>28.47516893855595</v>
+        <v>28.47516893855594</v>
       </c>
       <c r="S22" t="n">
         <v>11.03657477865179</v>
       </c>
       <c r="T22" t="n">
-        <v>2.705889486680408</v>
+        <v>2.705889486680407</v>
       </c>
       <c r="U22" t="n">
         <v>0.03454327004272865</v>
@@ -32704,7 +32704,7 @@
         <v>14.45878869268392</v>
       </c>
       <c r="I23" t="n">
-        <v>54.4291420553836</v>
+        <v>54.42914205538359</v>
       </c>
       <c r="J23" t="n">
         <v>119.8263509635721</v>
@@ -32722,22 +32722,22 @@
         <v>251.9143477024118</v>
       </c>
       <c r="O23" t="n">
-        <v>237.8755750855071</v>
+        <v>237.875575085507</v>
       </c>
       <c r="P23" t="n">
-        <v>203.0212998895462</v>
+        <v>203.0212998895461</v>
       </c>
       <c r="Q23" t="n">
         <v>152.4605411875573</v>
       </c>
       <c r="R23" t="n">
-        <v>88.68515905937331</v>
+        <v>88.68515905937329</v>
       </c>
       <c r="S23" t="n">
         <v>32.17181958594264</v>
       </c>
       <c r="T23" t="n">
-        <v>6.180236543607848</v>
+        <v>6.180236543607847</v>
       </c>
       <c r="U23" t="n">
         <v>0.1129454993691896</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7553896222551409</v>
+        <v>0.7553896222551408</v>
       </c>
       <c r="H24" t="n">
-        <v>7.295473457043073</v>
+        <v>7.295473457043072</v>
       </c>
       <c r="I24" t="n">
         <v>26.00793216974937</v>
       </c>
       <c r="J24" t="n">
-        <v>71.36775374121927</v>
+        <v>71.36775374121926</v>
       </c>
       <c r="K24" t="n">
         <v>121.9788584323137</v>
@@ -32795,7 +32795,7 @@
         <v>164.0156282883366</v>
       </c>
       <c r="M24" t="n">
-        <v>191.3985020950855</v>
+        <v>191.3985020950854</v>
       </c>
       <c r="N24" t="n">
         <v>196.4642509215246</v>
@@ -32807,10 +32807,10 @@
         <v>144.2462867269488</v>
       </c>
       <c r="Q24" t="n">
-        <v>96.4248226583931</v>
+        <v>96.42482265839307</v>
       </c>
       <c r="R24" t="n">
-        <v>46.900418827385</v>
+        <v>46.90041882738499</v>
       </c>
       <c r="S24" t="n">
         <v>14.0310309221514</v>
@@ -32856,46 +32856,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6332932841166913</v>
+        <v>0.6332932841166912</v>
       </c>
       <c r="H25" t="n">
-        <v>5.630553016964768</v>
+        <v>5.630553016964767</v>
       </c>
       <c r="I25" t="n">
-        <v>19.04485621689105</v>
+        <v>19.04485621689104</v>
       </c>
       <c r="J25" t="n">
-        <v>44.77383518705008</v>
+        <v>44.77383518705007</v>
       </c>
       <c r="K25" t="n">
         <v>73.57716519101193</v>
       </c>
       <c r="L25" t="n">
-        <v>94.15343971313065</v>
+        <v>94.15343971313064</v>
       </c>
       <c r="M25" t="n">
-        <v>99.27160089112824</v>
+        <v>99.27160089112823</v>
       </c>
       <c r="N25" t="n">
-        <v>96.91114410487521</v>
+        <v>96.91114410487518</v>
       </c>
       <c r="O25" t="n">
-        <v>89.51312710405746</v>
+        <v>89.51312710405743</v>
       </c>
       <c r="P25" t="n">
-        <v>76.59394410807688</v>
+        <v>76.59394410807687</v>
       </c>
       <c r="Q25" t="n">
-        <v>53.02967672726222</v>
+        <v>53.02967672726221</v>
       </c>
       <c r="R25" t="n">
-        <v>28.47516893855595</v>
+        <v>28.47516893855594</v>
       </c>
       <c r="S25" t="n">
         <v>11.03657477865179</v>
       </c>
       <c r="T25" t="n">
-        <v>2.705889486680408</v>
+        <v>2.705889486680407</v>
       </c>
       <c r="U25" t="n">
         <v>0.03454327004272865</v>
@@ -32941,7 +32941,7 @@
         <v>14.45878869268392</v>
       </c>
       <c r="I26" t="n">
-        <v>54.4291420553836</v>
+        <v>54.42914205538359</v>
       </c>
       <c r="J26" t="n">
         <v>119.8263509635721</v>
@@ -32959,22 +32959,22 @@
         <v>251.9143477024118</v>
       </c>
       <c r="O26" t="n">
-        <v>237.8755750855071</v>
+        <v>237.875575085507</v>
       </c>
       <c r="P26" t="n">
-        <v>203.0212998895462</v>
+        <v>203.0212998895461</v>
       </c>
       <c r="Q26" t="n">
         <v>152.4605411875573</v>
       </c>
       <c r="R26" t="n">
-        <v>88.68515905937331</v>
+        <v>88.68515905937329</v>
       </c>
       <c r="S26" t="n">
         <v>32.17181958594264</v>
       </c>
       <c r="T26" t="n">
-        <v>6.180236543607848</v>
+        <v>6.180236543607847</v>
       </c>
       <c r="U26" t="n">
         <v>0.1129454993691896</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7553896222551409</v>
+        <v>0.7553896222551408</v>
       </c>
       <c r="H27" t="n">
-        <v>7.295473457043073</v>
+        <v>7.295473457043072</v>
       </c>
       <c r="I27" t="n">
         <v>26.00793216974937</v>
       </c>
       <c r="J27" t="n">
-        <v>71.36775374121927</v>
+        <v>71.36775374121926</v>
       </c>
       <c r="K27" t="n">
         <v>121.9788584323137</v>
@@ -33032,7 +33032,7 @@
         <v>164.0156282883366</v>
       </c>
       <c r="M27" t="n">
-        <v>191.3985020950855</v>
+        <v>191.3985020950854</v>
       </c>
       <c r="N27" t="n">
         <v>196.4642509215246</v>
@@ -33044,10 +33044,10 @@
         <v>144.2462867269488</v>
       </c>
       <c r="Q27" t="n">
-        <v>96.4248226583931</v>
+        <v>96.42482265839307</v>
       </c>
       <c r="R27" t="n">
-        <v>46.900418827385</v>
+        <v>46.90041882738499</v>
       </c>
       <c r="S27" t="n">
         <v>14.0310309221514</v>
@@ -33093,46 +33093,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6332932841166913</v>
+        <v>0.6332932841166912</v>
       </c>
       <c r="H28" t="n">
-        <v>5.630553016964768</v>
+        <v>5.630553016964767</v>
       </c>
       <c r="I28" t="n">
-        <v>19.04485621689105</v>
+        <v>19.04485621689104</v>
       </c>
       <c r="J28" t="n">
-        <v>44.77383518705008</v>
+        <v>44.77383518705007</v>
       </c>
       <c r="K28" t="n">
         <v>73.57716519101193</v>
       </c>
       <c r="L28" t="n">
-        <v>94.15343971313065</v>
+        <v>94.15343971313064</v>
       </c>
       <c r="M28" t="n">
-        <v>99.27160089112824</v>
+        <v>99.27160089112823</v>
       </c>
       <c r="N28" t="n">
-        <v>96.91114410487521</v>
+        <v>96.91114410487518</v>
       </c>
       <c r="O28" t="n">
-        <v>89.51312710405746</v>
+        <v>89.51312710405743</v>
       </c>
       <c r="P28" t="n">
-        <v>76.59394410807688</v>
+        <v>76.59394410807687</v>
       </c>
       <c r="Q28" t="n">
-        <v>53.02967672726222</v>
+        <v>53.02967672726221</v>
       </c>
       <c r="R28" t="n">
-        <v>28.47516893855595</v>
+        <v>28.47516893855594</v>
       </c>
       <c r="S28" t="n">
         <v>11.03657477865179</v>
       </c>
       <c r="T28" t="n">
-        <v>2.705889486680408</v>
+        <v>2.705889486680407</v>
       </c>
       <c r="U28" t="n">
         <v>0.03454327004272865</v>
@@ -33178,7 +33178,7 @@
         <v>14.45878869268392</v>
       </c>
       <c r="I29" t="n">
-        <v>54.4291420553836</v>
+        <v>54.42914205538359</v>
       </c>
       <c r="J29" t="n">
         <v>119.8263509635721</v>
@@ -33196,22 +33196,22 @@
         <v>251.9143477024118</v>
       </c>
       <c r="O29" t="n">
-        <v>237.8755750855071</v>
+        <v>237.875575085507</v>
       </c>
       <c r="P29" t="n">
-        <v>203.0212998895462</v>
+        <v>203.0212998895461</v>
       </c>
       <c r="Q29" t="n">
         <v>152.4605411875573</v>
       </c>
       <c r="R29" t="n">
-        <v>88.68515905937331</v>
+        <v>88.68515905937329</v>
       </c>
       <c r="S29" t="n">
         <v>32.17181958594264</v>
       </c>
       <c r="T29" t="n">
-        <v>6.180236543607848</v>
+        <v>6.180236543607847</v>
       </c>
       <c r="U29" t="n">
         <v>0.1129454993691896</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7553896222551409</v>
+        <v>0.7553896222551408</v>
       </c>
       <c r="H30" t="n">
-        <v>7.295473457043073</v>
+        <v>7.295473457043072</v>
       </c>
       <c r="I30" t="n">
         <v>26.00793216974937</v>
       </c>
       <c r="J30" t="n">
-        <v>71.36775374121927</v>
+        <v>71.36775374121926</v>
       </c>
       <c r="K30" t="n">
         <v>121.9788584323137</v>
@@ -33269,7 +33269,7 @@
         <v>164.0156282883366</v>
       </c>
       <c r="M30" t="n">
-        <v>191.3985020950855</v>
+        <v>191.3985020950854</v>
       </c>
       <c r="N30" t="n">
         <v>196.4642509215246</v>
@@ -33281,10 +33281,10 @@
         <v>144.2462867269488</v>
       </c>
       <c r="Q30" t="n">
-        <v>96.4248226583931</v>
+        <v>96.42482265839307</v>
       </c>
       <c r="R30" t="n">
-        <v>46.900418827385</v>
+        <v>46.90041882738499</v>
       </c>
       <c r="S30" t="n">
         <v>14.0310309221514</v>
@@ -33330,46 +33330,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6332932841166913</v>
+        <v>0.6332932841166912</v>
       </c>
       <c r="H31" t="n">
-        <v>5.630553016964768</v>
+        <v>5.630553016964767</v>
       </c>
       <c r="I31" t="n">
-        <v>19.04485621689105</v>
+        <v>19.04485621689104</v>
       </c>
       <c r="J31" t="n">
-        <v>44.77383518705008</v>
+        <v>44.77383518705007</v>
       </c>
       <c r="K31" t="n">
         <v>73.57716519101193</v>
       </c>
       <c r="L31" t="n">
-        <v>94.15343971313065</v>
+        <v>94.15343971313064</v>
       </c>
       <c r="M31" t="n">
-        <v>99.27160089112824</v>
+        <v>99.27160089112823</v>
       </c>
       <c r="N31" t="n">
-        <v>96.91114410487521</v>
+        <v>96.91114410487518</v>
       </c>
       <c r="O31" t="n">
-        <v>89.51312710405746</v>
+        <v>89.51312710405743</v>
       </c>
       <c r="P31" t="n">
-        <v>76.59394410807688</v>
+        <v>76.59394410807687</v>
       </c>
       <c r="Q31" t="n">
-        <v>53.02967672726222</v>
+        <v>53.02967672726221</v>
       </c>
       <c r="R31" t="n">
-        <v>28.47516893855595</v>
+        <v>28.47516893855594</v>
       </c>
       <c r="S31" t="n">
         <v>11.03657477865179</v>
       </c>
       <c r="T31" t="n">
-        <v>2.705889486680408</v>
+        <v>2.705889486680407</v>
       </c>
       <c r="U31" t="n">
         <v>0.03454327004272865</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>65.12253883819137</v>
       </c>
       <c r="K11" t="n">
-        <v>65.12253883819128</v>
+        <v>65.12253883819137</v>
       </c>
       <c r="L11" t="n">
-        <v>65.12253883819128</v>
+        <v>65.12253883819137</v>
       </c>
       <c r="M11" t="n">
-        <v>65.12253883819128</v>
+        <v>17.55678447410517</v>
       </c>
       <c r="N11" t="n">
-        <v>54.71396148393894</v>
+        <v>22.50128410582087</v>
       </c>
       <c r="O11" t="n">
-        <v>7.777363663820353</v>
+        <v>7.777363663820296</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>14.65589290401305</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>65.12253883819128</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>25.46124850846246</v>
+        <v>25.46124850846243</v>
       </c>
       <c r="M12" t="n">
-        <v>49.26446817306714</v>
+        <v>49.26446817306712</v>
       </c>
       <c r="N12" t="n">
-        <v>65.12253883819128</v>
+        <v>65.12253883819137</v>
       </c>
       <c r="O12" t="n">
-        <v>37.13016274184781</v>
+        <v>37.13016274184778</v>
       </c>
       <c r="P12" t="n">
-        <v>15.75798456257315</v>
+        <v>15.75798456257347</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>65.12253883819137</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,22 +35568,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>51.30767336512908</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>11.18365178263021</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>65.12253883819128</v>
+        <v>62.49132514775941</v>
       </c>
       <c r="N13" t="n">
-        <v>65.12253883819128</v>
+        <v>65.12253883819137</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>65.12253883819137</v>
       </c>
       <c r="P13" t="n">
-        <v>65.12253883819128</v>
+        <v>65.12253883819137</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>65.12253883819128</v>
+        <v>14.65589290401297</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>17.5567844741052</v>
+        <v>17.55678447410517</v>
       </c>
       <c r="N14" t="n">
-        <v>44.93454067365408</v>
+        <v>22.50128410582087</v>
       </c>
       <c r="O14" t="n">
-        <v>65.12253883819128</v>
+        <v>7.777363663820296</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.12253883819128</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35699,7 +35699,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.118688621003191</v>
+        <v>3.118688621003173</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>15.75798456257314</v>
+        <v>30.94735375841709</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.46124850846246</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="M15" t="n">
-        <v>49.26446817306714</v>
+        <v>49.26446817306712</v>
       </c>
       <c r="N15" t="n">
-        <v>65.12253883819128</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="O15" t="n">
-        <v>37.13016274184781</v>
+        <v>37.13016274184778</v>
       </c>
       <c r="P15" t="n">
-        <v>65.12253883819128</v>
+        <v>10.27187931261855</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35805,22 +35805,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>51.30767336512908</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>65.12253883819128</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="M16" t="n">
-        <v>65.12253883819128</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>11.18365178263025</v>
+        <v>62.49132514775933</v>
       </c>
       <c r="O16" t="n">
-        <v>65.12253883819128</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>65.12253883819128</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -35890,19 +35890,19 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>65.12253883819128</v>
+        <v>54.71396148393902</v>
       </c>
       <c r="N17" t="n">
-        <v>54.71396148393894</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="O17" t="n">
-        <v>7.777363663820353</v>
+        <v>7.777363663820296</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.12253883819128</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35936,7 +35936,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.118688621003173</v>
+        <v>3.11868862100319</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>65.12253883819128</v>
+        <v>25.46124850846243</v>
       </c>
       <c r="M18" t="n">
-        <v>49.26446817306714</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="N18" t="n">
-        <v>65.12253883819128</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="O18" t="n">
-        <v>37.13016274184781</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="P18" t="n">
-        <v>41.2192330710356</v>
+        <v>37.03007663929684</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36045,19 +36045,19 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>65.12253883819128</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>65.12253883819128</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="N19" t="n">
+        <v>65.12253883819125</v>
+      </c>
+      <c r="O19" t="n">
         <v>62.4913251477593</v>
       </c>
-      <c r="O19" t="n">
-        <v>65.12253883819128</v>
-      </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,22 +36118,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>76.02352492026785</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>72.95186734773178</v>
+      </c>
+      <c r="N20" t="n">
         <v>76.02352492026785</v>
       </c>
-      <c r="L20" t="n">
+      <c r="O20" t="n">
         <v>76.02352492026785</v>
-      </c>
-      <c r="M20" t="n">
-        <v>76.02352492026785</v>
-      </c>
-      <c r="N20" t="n">
-        <v>22.5012841058209</v>
-      </c>
-      <c r="O20" t="n">
-        <v>50.45058324191086</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>70.62116241496142</v>
+        <v>70.6211624149614</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>25.46124850846246</v>
+        <v>29.71886844942913</v>
       </c>
       <c r="M21" t="n">
-        <v>49.26446817306714</v>
+        <v>49.26446817306712</v>
       </c>
       <c r="N21" t="n">
-        <v>65.12253883819128</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="O21" t="n">
-        <v>37.13016274184781</v>
+        <v>76.02352492026785</v>
       </c>
       <c r="P21" t="n">
-        <v>10.27187931261858</v>
+        <v>10.27187931261855</v>
       </c>
       <c r="Q21" t="n">
-        <v>43.15098211938665</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>51.30767336512908</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>76.02352492026785</v>
@@ -36291,7 +36291,7 @@
         <v>76.02352492026785</v>
       </c>
       <c r="O22" t="n">
-        <v>21.64419398260269</v>
+        <v>72.95186734773176</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -36358,25 +36358,25 @@
         <v>107.8770616089596</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="L23" t="n">
-        <v>130.2450776763829</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>130.2450776763829</v>
+        <v>17.55678447410517</v>
       </c>
       <c r="N23" t="n">
-        <v>130.2450776763829</v>
+        <v>122.0165182250163</v>
       </c>
       <c r="O23" t="n">
-        <v>17.10558868655938</v>
+        <v>7.777363663820296</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>70.62116241496142</v>
+        <v>70.6211624149614</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>130.2450776763829</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="M24" t="n">
-        <v>49.26446817306714</v>
+        <v>109.2121474061301</v>
       </c>
       <c r="N24" t="n">
-        <v>98.21193464202545</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="O24" t="n">
-        <v>37.13016274184781</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="P24" t="n">
-        <v>130.2450776763829</v>
+        <v>10.27187931261855</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>51.30767336512908</v>
       </c>
       <c r="L25" t="n">
         <v>121.7434649734468</v>
       </c>
       <c r="M25" t="n">
-        <v>130.2450776763829</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="N25" t="n">
-        <v>130.2450776763829</v>
+        <v>24.4509089186406</v>
       </c>
       <c r="O25" t="n">
         <v>114.0982550180971</v>
       </c>
       <c r="P25" t="n">
-        <v>19.38600798035792</v>
+        <v>73.87250337297036</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36598,22 +36598,22 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="M26" t="n">
-        <v>124.8493822571213</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="N26" t="n">
-        <v>22.5012841058209</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="O26" t="n">
-        <v>130.2450776763829</v>
+        <v>17.10558868655915</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>130.2450776763829</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>70.62116241496142</v>
+        <v>70.6211624149614</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>130.2450776763829</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="M27" t="n">
-        <v>82.35386397690128</v>
+        <v>49.26446817306712</v>
       </c>
       <c r="N27" t="n">
-        <v>65.12253883819128</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="O27" t="n">
-        <v>37.13016274184781</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="P27" t="n">
-        <v>130.2450776763829</v>
+        <v>70.21955854568159</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36759,16 +36759,16 @@
         <v>121.7434649734468</v>
       </c>
       <c r="M28" t="n">
-        <v>98.32341229161173</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="N28" t="n">
-        <v>130.2450776763829</v>
+        <v>24.4509089186406</v>
       </c>
       <c r="O28" t="n">
         <v>114.0982550180971</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>73.87250337297036</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36832,25 +36832,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>130.2450776763829</v>
+        <v>94.70400252587756</v>
       </c>
       <c r="L29" t="n">
-        <v>130.2450776763829</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="M29" t="n">
-        <v>17.5567844741052</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="N29" t="n">
-        <v>22.5012841058209</v>
+        <v>22.50128410582087</v>
       </c>
       <c r="O29" t="n">
-        <v>130.2450776763829</v>
+        <v>7.777363663820296</v>
       </c>
       <c r="P29" t="n">
-        <v>84.92458171559288</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>70.62116241496142</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="L30" t="n">
-        <v>25.46124850846246</v>
+        <v>93.43867890617662</v>
       </c>
       <c r="M30" t="n">
-        <v>49.26446817306714</v>
+        <v>49.26446817306712</v>
       </c>
       <c r="N30" t="n">
-        <v>130.2450776763829</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="O30" t="n">
-        <v>130.2450776763829</v>
+        <v>37.13016274184778</v>
       </c>
       <c r="P30" t="n">
-        <v>109.8808488754108</v>
+        <v>10.27187931261855</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,22 +36990,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>51.30767336512908</v>
       </c>
       <c r="L31" t="n">
         <v>121.7434649734468</v>
       </c>
       <c r="M31" t="n">
-        <v>130.2450776763829</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="N31" t="n">
-        <v>130.2450776763829</v>
+        <v>98.32341229161094</v>
       </c>
       <c r="O31" t="n">
         <v>114.0982550180971</v>
       </c>
       <c r="P31" t="n">
-        <v>19.38600798035792</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37069,25 +37069,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>130.2450776763829</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>130.2450776763829</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>94.70400252587778</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="N32" t="n">
-        <v>22.50128410582087</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="O32" t="n">
-        <v>7.777363663820296</v>
+        <v>124.9826502955187</v>
       </c>
       <c r="P32" t="n">
-        <v>130.2450776763829</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>70.6211624149614</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="L33" t="n">
         <v>25.46124850846243</v>
@@ -37157,16 +37157,16 @@
         <v>49.26446817306712</v>
       </c>
       <c r="N33" t="n">
-        <v>65.12253883819125</v>
+        <v>72.7506861335626</v>
       </c>
       <c r="O33" t="n">
-        <v>44.7583100372196</v>
+        <v>37.13016274184778</v>
       </c>
       <c r="P33" t="n">
-        <v>130.2450776763829</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.2450776763829</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,16 +37227,16 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>51.30767336512908</v>
       </c>
       <c r="L34" t="n">
-        <v>67.25696958083441</v>
+        <v>121.7434649734468</v>
       </c>
       <c r="M34" t="n">
-        <v>130.2450776763829</v>
+        <v>24.4509089186406</v>
       </c>
       <c r="N34" t="n">
-        <v>130.2450776763829</v>
+        <v>130.2450776763826</v>
       </c>
       <c r="O34" t="n">
         <v>114.0982550180971</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
+        <v>37.15717700983384</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>65.12253883819125</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>44.93454067365415</v>
       </c>
       <c r="M35" t="n">
         <v>17.55678447410517</v>
@@ -37318,13 +37318,13 @@
         <v>65.12253883819125</v>
       </c>
       <c r="O35" t="n">
+        <v>7.777363663820296</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
         <v>65.12253883819125</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="K36" t="n">
-        <v>65.12253883819125</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>25.46124850846243</v>
@@ -37546,22 +37546,22 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="M38" t="n">
-        <v>17.55678447410517</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="N38" t="n">
-        <v>44.93454067365415</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="O38" t="n">
-        <v>65.12253883819125</v>
+        <v>62.4913251477593</v>
       </c>
       <c r="P38" t="n">
-        <v>65.12253883819125</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>65.12253883819125</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
+        <v>5.486105249954655</v>
+      </c>
+      <c r="K39" t="n">
         <v>65.12253883819125</v>
-      </c>
-      <c r="K39" t="n">
-        <v>5.486105249954662</v>
       </c>
       <c r="L39" t="n">
         <v>25.46124850846243</v>
@@ -37704,16 +37704,16 @@
         <v>51.30767336512908</v>
       </c>
       <c r="L40" t="n">
-        <v>65.12253883819125</v>
+        <v>11.18365178263024</v>
       </c>
       <c r="M40" t="n">
-        <v>11.18365178263025</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>65.12253883819125</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="P40" t="n">
         <v>65.12253883819125</v>
@@ -37780,25 +37780,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>62.49132514775932</v>
+      </c>
+      <c r="M41" t="n">
         <v>65.12253883819125</v>
       </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>17.55678447410517</v>
-      </c>
       <c r="N41" t="n">
-        <v>22.50128410582087</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="O41" t="n">
-        <v>22.43325656783329</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="P41" t="n">
-        <v>65.12253883819125</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>65.12253883819125</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>65.12253883819125</v>
       </c>
       <c r="L42" t="n">
         <v>25.46124850846243</v>
       </c>
       <c r="M42" t="n">
-        <v>49.26446817306712</v>
+        <v>54.75057342302178</v>
       </c>
       <c r="N42" t="n">
         <v>65.12253883819125</v>
@@ -37874,10 +37874,10 @@
         <v>37.13016274184778</v>
       </c>
       <c r="P42" t="n">
-        <v>15.75798456257321</v>
+        <v>10.27187931261855</v>
       </c>
       <c r="Q42" t="n">
-        <v>65.12253883819125</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>51.30767336512908</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>65.12253883819125</v>
@@ -37947,13 +37947,13 @@
         <v>65.12253883819125</v>
       </c>
       <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>62.4913251477593</v>
+      </c>
+      <c r="P43" t="n">
         <v>65.12253883819125</v>
-      </c>
-      <c r="O43" t="n">
-        <v>11.18365178263025</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,25 +38014,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>54.22155275611468</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>54.22155275611468</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>17.55678447410517</v>
+        <v>54.22155275611465</v>
       </c>
       <c r="N44" t="n">
-        <v>34.47399847368165</v>
+        <v>54.22155275611465</v>
       </c>
       <c r="O44" t="n">
-        <v>54.22155275611468</v>
+        <v>54.22155275611465</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>52.0307829477868</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,16 +38099,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>46.71598821821583</v>
+        <v>54.22155275611465</v>
       </c>
       <c r="M45" t="n">
         <v>49.26446817306712</v>
       </c>
       <c r="N45" t="n">
-        <v>54.22155275611468</v>
+        <v>54.22155275611465</v>
       </c>
       <c r="O45" t="n">
-        <v>54.22155275611468</v>
+        <v>46.71598821821576</v>
       </c>
       <c r="P45" t="n">
         <v>10.27187931261855</v>
@@ -38175,19 +38175,19 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>51.30767336512908</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>54.22155275611468</v>
+        <v>52.0307829477868</v>
       </c>
       <c r="M46" t="n">
-        <v>54.22155275611468</v>
+        <v>54.22155275611465</v>
       </c>
       <c r="N46" t="n">
-        <v>54.22155275611468</v>
+        <v>54.22155275611465</v>
       </c>
       <c r="O46" t="n">
-        <v>0.7231095826577503</v>
+        <v>54.22155275611465</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
